--- a/final_data/xlsx/results_850_sig_right.xlsx
+++ b/final_data/xlsx/results_850_sig_right.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelruland/Documents/studium_paderborn/Bachelorarbeit/BA_thesis/final_data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF8BE32-9045-F94F-AAF3-F3CE4FFD9EEE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9ECA16-6C90-F546-9851-02D31C541DE5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,9 +749,16 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -762,6 +769,9 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -780,7 +790,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93F8B658-F7C3-ED4F-B200-29641A083EC4}" name="Table1" displayName="Table1" ref="A1:J202" totalsRowShown="0">
   <autoFilter ref="A1:J202" xr:uid="{03507D0A-09C7-3641-B8CC-4B1E5166F066}"/>
   <sortState ref="A2:J202">
-    <sortCondition descending="1" ref="I1:I202"/>
+    <sortCondition descending="1" ref="C1:C202"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6E31F30E-43AA-574F-8939-968E87617730}" name="antecedent"/>
@@ -792,7 +802,7 @@
     <tableColumn id="7" xr3:uid="{B4B91BFF-88E9-0140-B61F-EF03D729DD43}" name="p_occ"/>
     <tableColumn id="8" xr3:uid="{022A8B5A-E46E-1A4A-AB1A-DFCAA1D87C48}" name="p_dur"/>
     <tableColumn id="9" xr3:uid="{6A7E5047-7837-AD45-AA78-C46C879EF94B}" name="null_obs"/>
-    <tableColumn id="10" xr3:uid="{FE384301-1CC3-D04B-8FC2-9E74D9B3EF86}" name="num_sig" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{FE384301-1CC3-D04B-8FC2-9E74D9B3EF86}" name="num_sig" dataDxfId="2">
       <calculatedColumnFormula>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1099,14 +1109,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="2" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1143,31 +1152,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>0.374</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>307.697</v>
+        <v>14.875999999999999</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="J2">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1176,31 +1185,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3">
-        <v>0.46899999999999997</v>
+        <v>0.72</v>
       </c>
       <c r="D3">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="E3">
-        <v>880.69500000000005</v>
+        <v>549.15700000000004</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.46</v>
+        <v>0.42307692307692302</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1209,31 +1218,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>0.33600000000000002</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="D4">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="E4">
-        <v>433.911</v>
+        <v>547.91399999999999</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.99</v>
+        <v>0.6</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1242,31 +1251,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>0.438</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>195.22900000000001</v>
+        <v>25.032</v>
       </c>
       <c r="F5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.26</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="H5">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="J5">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1274,98 +1283,98 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>0.317</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="D6">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>399.65300000000002</v>
+        <v>1313.992</v>
       </c>
       <c r="F6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.02</v>
+        <v>0.94</v>
       </c>
       <c r="H6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
       <c r="J6">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
       <c r="C7">
-        <v>0.44700000000000001</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="D7">
-        <v>719</v>
+        <v>38</v>
       </c>
       <c r="E7">
-        <v>839.54399999999998</v>
+        <v>298.63400000000001</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G7">
-        <v>0.36</v>
+        <v>0.88</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J7">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>0.438</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="D8">
-        <v>766</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>881.77599999999995</v>
+        <v>163.28399999999999</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.93</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J8">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1374,58 +1383,58 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>165.49700000000001</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>0.3</v>
-      </c>
-      <c r="D9">
-        <v>261</v>
-      </c>
-      <c r="E9">
-        <v>562.80200000000002</v>
-      </c>
-      <c r="F9">
-        <v>0.47</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
       <c r="C10">
-        <v>0.63200000000000001</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="D10">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="E10">
-        <v>816.05499999999995</v>
+        <v>1349.45</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.49</v>
+        <v>0.99</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1440,64 +1449,64 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>0.42099999999999999</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D11">
-        <v>231</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>847.197</v>
+        <v>65.733999999999995</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.68</v>
+        <v>0.79411764705882304</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="J11">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="C12">
-        <v>0.70099999999999996</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="D12">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1313.992</v>
+        <v>67.795000000000002</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.94</v>
+        <v>0.92307692307692302</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="J12">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1506,31 +1515,31 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>0.44800000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>288.49400000000003</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.25806451612903197</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>62</v>
-      </c>
-      <c r="E13">
-        <v>425.46100000000001</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>100</v>
       </c>
       <c r="J13">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1539,124 +1548,124 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D14">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>233.24100000000001</v>
+        <v>186.97399999999999</v>
       </c>
       <c r="F14">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="H14">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J14">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15">
-        <v>0.61599999999999999</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="D15">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>794.53800000000001</v>
+        <v>297.14800000000002</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.87</v>
+        <v>0.90789473684210498</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.118421052631578</v>
       </c>
       <c r="I15">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J15">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>0.214</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D16">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>276.26499999999999</v>
+        <v>79.843000000000004</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.03</v>
+        <v>0.69767441860465096</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>0.43099999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D17">
-        <v>319</v>
+        <v>143</v>
       </c>
       <c r="E17">
-        <v>409.52</v>
+        <v>816.05499999999995</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.99</v>
+        <v>0.49</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1671,31 +1680,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>0.38100000000000001</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D18">
-        <v>424</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>492.16199999999998</v>
+        <v>13.4</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.56000000000000005</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J18">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1704,31 +1713,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>0.54700000000000004</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="D19">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>450.74700000000001</v>
+        <v>20.32</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1737,31 +1746,31 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
       <c r="C20">
-        <v>0.56999999999999995</v>
+        <v>0.627</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E20">
-        <v>469.65899999999999</v>
+        <v>248.24600000000001</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1.8867924528301799E-2</v>
       </c>
       <c r="G20">
-        <v>0.43</v>
+        <v>0.75471698113207497</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1770,31 +1779,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>0.30099999999999999</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D21">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>247.66800000000001</v>
+        <v>19.914999999999999</v>
       </c>
       <c r="F21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="J21">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1802,26 +1811,26 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
       <c r="C22">
-        <v>0.67100000000000004</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D22">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="E22">
-        <v>1349.45</v>
+        <v>794.53800000000001</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.99</v>
+        <v>0.87</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1836,31 +1845,31 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>0.29899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>59.43</v>
+        <v>38.439</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J23">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1869,31 +1878,31 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>0.14099999999999999</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D24">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>134.672</v>
+        <v>6.4420000000000002</v>
       </c>
       <c r="F24">
-        <v>0.24175824175824101</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>2.19780219780219E-2</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0.17582417582417501</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="J24">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1902,64 +1911,64 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>38.439</v>
+        <v>30.786000000000001</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.69491525423728795</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.152542372881355</v>
       </c>
       <c r="I25">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="J25">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C26">
-        <v>0.48299999999999998</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E26">
-        <v>82.968000000000004</v>
+        <v>233.398</v>
       </c>
       <c r="F26">
-        <v>1.20481927710843E-2</v>
+        <v>0.26415094339622602</v>
       </c>
       <c r="G26">
-        <v>0.92771084337349397</v>
+        <v>0.169811320754716</v>
       </c>
       <c r="H26">
-        <v>0.62650602409638501</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="J26">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1968,31 +1977,31 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C27">
-        <v>0.32800000000000001</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>32.387999999999998</v>
+        <v>106.557</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.89024390243902396</v>
+        <v>0.4</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="J27">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2000,32 +2009,32 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C28">
-        <v>0.156</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D28">
-        <v>338</v>
+        <v>37</v>
       </c>
       <c r="E28">
-        <v>292.39999999999998</v>
+        <v>469.65899999999999</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.44871794871794801</v>
+        <v>0.43</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J28">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2034,31 +2043,31 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>0.53700000000000003</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E29">
-        <v>121.001</v>
+        <v>263.108</v>
       </c>
       <c r="F29">
-        <v>1.2820512820512799E-2</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0.91025641025641002</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J29">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2067,85 +2076,85 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30">
-        <v>0.47399999999999998</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>106.831</v>
+        <v>6.9720000000000004</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="G30">
-        <v>0.61538461538461497</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="J30">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>0.47</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D31">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="E31">
-        <v>217.08500000000001</v>
+        <v>162.916</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0.94736842105263097</v>
+        <v>0.86666666666666603</v>
       </c>
       <c r="H31">
-        <v>5.2631578947368397E-2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="J31">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32">
-        <v>0.56999999999999995</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E32">
-        <v>263.108</v>
+        <v>247.81200000000001</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2157,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J32">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2166,31 +2175,31 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
       <c r="C33">
-        <v>0.22500000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D33">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>290.72899999999998</v>
+        <v>66.968000000000004</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.118421052631578</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="J33">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2199,31 +2208,31 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
       <c r="C34">
-        <v>0.161</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="D34">
-        <v>220</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>208.24100000000001</v>
+        <v>43.845999999999997</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.157894736842105</v>
+        <v>0.61538461538461497</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="J34">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2232,31 +2241,31 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>0.64400000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>297.14800000000002</v>
+        <v>28.759</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2.3809523809523801E-2</v>
       </c>
       <c r="G35">
-        <v>0.90789473684210498</v>
+        <v>0.85714285714285698</v>
       </c>
       <c r="H35">
-        <v>0.118421052631578</v>
+        <v>0.14285714285714199</v>
       </c>
       <c r="I35">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2264,131 +2273,131 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>24</v>
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
       </c>
       <c r="C36">
-        <v>0.19600000000000001</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D36">
-        <v>258</v>
+        <v>59</v>
       </c>
       <c r="E36">
-        <v>394.01600000000002</v>
+        <v>450.74700000000001</v>
       </c>
       <c r="F36">
-        <v>2.6315789473684199E-2</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="H36">
-        <v>2.6315789473684199E-2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="J36">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>0.13200000000000001</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D37">
-        <v>311</v>
+        <v>27</v>
       </c>
       <c r="E37">
-        <v>266.05</v>
+        <v>246.767</v>
       </c>
       <c r="F37">
-        <v>0.04</v>
+        <v>1.47058823529411E-2</v>
       </c>
       <c r="G37">
-        <v>0.94666666666666599</v>
+        <v>0.85294117647058798</v>
       </c>
       <c r="H37">
-        <v>5.3333333333333302E-2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J37">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C38">
-        <v>0.17799999999999999</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D38">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>147.018</v>
+        <v>28.045000000000002</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>3.2258064516128997E-2</v>
       </c>
       <c r="G38">
-        <v>0.56000000000000005</v>
+        <v>0.83870967741935398</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.17741935483870899</v>
       </c>
       <c r="I38">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J38">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
       <c r="C39">
-        <v>0.46100000000000002</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D39">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="E39">
-        <v>594.99599999999998</v>
+        <v>67.286000000000001</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.28378378378378299</v>
+        <v>0.13636363636363599</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2397,31 +2406,31 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>0.374</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D40">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>308.10599999999999</v>
+        <v>121.001</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1.2820512820512799E-2</v>
       </c>
       <c r="G40">
-        <v>0.54054054054054002</v>
+        <v>0.91025641025641002</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J40">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2430,130 +2439,130 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C41">
-        <v>0.33200000000000002</v>
+        <v>0.53</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>66.149000000000001</v>
+        <v>31.175999999999998</v>
       </c>
       <c r="F41">
-        <v>4.0540540540540501E-2</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="G41">
-        <v>0.91891891891891897</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>0.14864864864864799</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="J41">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C42">
-        <v>0.439</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D42">
-        <v>482</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>556.37099999999998</v>
+        <v>148.089</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="J42">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="C43">
-        <v>0.46899999999999997</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D43">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="E43">
-        <v>594.95399999999995</v>
+        <v>82.968000000000004</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1.20481927710843E-2</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.92771084337349397</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>0.62650602409638501</v>
       </c>
       <c r="I43">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J43">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
         <v>27</v>
       </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
       <c r="C44">
-        <v>0.28999999999999998</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D44">
-        <v>196</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>367.54</v>
+        <v>25.175000000000001</v>
       </c>
       <c r="F44">
-        <v>0.445945945945945</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.60869565217391297</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="J44">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2562,97 +2571,97 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C45">
-        <v>0.309</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <v>30.510999999999999</v>
+        <v>136.66200000000001</v>
       </c>
       <c r="F45">
-        <v>1.4492753623188401E-2</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0.98550724637681097</v>
+        <v>5.5555555555555497E-2</v>
       </c>
       <c r="H45">
-        <v>7.2463768115942004E-2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J45">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>0.32400000000000001</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="D46">
-        <v>587</v>
+        <v>14</v>
       </c>
       <c r="E46">
-        <v>608.96299999999997</v>
+        <v>106.831</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.61538461538461497</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J46">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>0.66700000000000004</v>
+        <v>0.47</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="E47">
-        <v>65.733999999999995</v>
+        <v>217.08500000000001</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.79411764705882304</v>
+        <v>0.94736842105263097</v>
       </c>
       <c r="H47">
-        <v>5.8823529411764698E-2</v>
+        <v>5.2631578947368397E-2</v>
       </c>
       <c r="I47">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="J47">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2661,31 +2670,31 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>0.54400000000000004</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="E48">
-        <v>246.767</v>
+        <v>880.69500000000005</v>
       </c>
       <c r="F48">
-        <v>1.47058823529411E-2</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.85294117647058798</v>
+        <v>0.46</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="J48">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2694,52 +2703,52 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>0.152</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D49">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="E49">
-        <v>191.83</v>
+        <v>594.95399999999995</v>
       </c>
       <c r="F49">
-        <v>1.47058823529411E-2</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0.26470588235294101</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>2.94117647058823E-2</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J49">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
         <v>10</v>
       </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
       <c r="C50">
-        <v>0.26200000000000001</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D50">
-        <v>321</v>
+        <v>30</v>
       </c>
       <c r="E50">
-        <v>337.995</v>
+        <v>130.71600000000001</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2751,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J50">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2760,64 +2769,64 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C51">
-        <v>0.312</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D51">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="E51">
-        <v>141.58600000000001</v>
+        <v>594.99599999999998</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>2.94117647058823E-2</v>
+        <v>0.28378378378378299</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J51">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>0.41599999999999998</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D52">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E52">
-        <v>188.84200000000001</v>
+        <v>132.81100000000001</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0.51470588235294101</v>
+        <v>0.56666666666666599</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="J52">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2826,64 +2835,64 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>0.35399999999999998</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E53">
-        <v>42.561</v>
+        <v>200.685</v>
       </c>
       <c r="F53">
-        <v>1.5625E-2</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0.234375</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J53">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54">
-        <v>0.3</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="E54">
-        <v>15.643000000000001</v>
+        <v>198.80099999999999</v>
       </c>
       <c r="F54">
-        <v>4.7619047619047603E-2</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.952380952380952</v>
+        <v>0.94</v>
       </c>
       <c r="H54">
-        <v>0.22222222222222199</v>
+        <v>0.1</v>
       </c>
       <c r="I54">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="J54">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2892,196 +2901,196 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C55">
-        <v>0.25900000000000001</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D55">
-        <v>222</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>246.25299999999999</v>
+        <v>46.05</v>
       </c>
       <c r="F55">
-        <v>8.0645161290322495E-2</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.98387096774193505</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>4.8387096774193498E-2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="J55">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
         <v>10</v>
       </c>
-      <c r="B56" t="s">
-        <v>13</v>
-      </c>
       <c r="C56">
-        <v>0.27500000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D56">
-        <v>349</v>
+        <v>62</v>
       </c>
       <c r="E56">
-        <v>354.62200000000001</v>
+        <v>425.46100000000001</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1.6129032258064498E-2</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="J56">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57">
-        <v>0.32400000000000001</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D57">
-        <v>49</v>
+        <v>719</v>
       </c>
       <c r="E57">
-        <v>142.143</v>
+        <v>839.54399999999998</v>
       </c>
       <c r="F57">
-        <v>1.6129032258064498E-2</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="J57">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C58">
-        <v>0.45700000000000002</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D58">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E58">
-        <v>200.685</v>
+        <v>176.01</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="J58">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C59">
-        <v>0.53800000000000003</v>
+        <v>0.439</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>482</v>
       </c>
       <c r="E59">
-        <v>28.045000000000002</v>
+        <v>556.37099999999998</v>
       </c>
       <c r="F59">
-        <v>3.2258064516128997E-2</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0.83870967741935398</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0.17741935483870899</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="J59">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C60">
-        <v>0.65800000000000003</v>
+        <v>0.438</v>
       </c>
       <c r="D60">
-        <v>21</v>
+        <v>766</v>
       </c>
       <c r="E60">
-        <v>288.49400000000003</v>
+        <v>881.77599999999995</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0.25806451612903197</v>
+        <v>0.93</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="J60">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3090,97 +3099,97 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C61">
-        <v>0.318</v>
+        <v>0.438</v>
       </c>
       <c r="D61">
-        <v>642</v>
+        <v>54</v>
       </c>
       <c r="E61">
-        <v>639.43700000000001</v>
+        <v>195.22900000000001</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I61">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="J61">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C62">
-        <v>0.59</v>
+        <v>0.433</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E62">
-        <v>30.786000000000001</v>
+        <v>80.546000000000006</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.69491525423728795</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0.152542372881355</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="J62">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C63">
-        <v>0.12</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D63">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="E63">
-        <v>152.565</v>
+        <v>409.52</v>
       </c>
       <c r="F63">
-        <v>0.13793103448275801</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="J63">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3189,64 +3198,64 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C64">
-        <v>0.108</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D64">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="E64">
-        <v>202.95500000000001</v>
+        <v>102.578</v>
       </c>
       <c r="F64">
-        <v>0.17241379310344801</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0.18965517241379301</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="J64">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>0.36699999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="E65">
-        <v>82.816999999999993</v>
+        <v>847.197</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0.92857142857142805</v>
+        <v>0.68</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="J65">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3255,22 +3264,22 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C66">
-        <v>0.15</v>
+        <v>0.42</v>
       </c>
       <c r="D66">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="E66">
-        <v>189.941</v>
+        <v>166.41499999999999</v>
       </c>
       <c r="F66">
-        <v>1.85185185185185E-2</v>
+        <v>5.6603773584905599E-2</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3279,73 +3288,73 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J66">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C67">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="D67">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>143.03</v>
+        <v>6.9820000000000002</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="G67">
-        <v>0.74074074074074003</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="J67">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>0.42</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="D68">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="E68">
-        <v>166.41499999999999</v>
+        <v>188.84200000000001</v>
       </c>
       <c r="F68">
-        <v>5.6603773584905599E-2</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>0.51470588235294101</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="J68">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3354,130 +3363,130 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C69">
-        <v>0.627</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="E69">
-        <v>248.24600000000001</v>
+        <v>101.7</v>
       </c>
       <c r="F69">
-        <v>1.8867924528301799E-2</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.75471698113207497</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="J69">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>0.58899999999999997</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="D70">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="E70">
-        <v>233.398</v>
+        <v>219.17</v>
       </c>
       <c r="F70">
-        <v>0.26415094339622602</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>0.169811320754716</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="J70">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C71">
-        <v>0.16900000000000001</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D71">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="E71">
-        <v>67.016000000000005</v>
+        <v>311.99799999999999</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>3.7735849056603703E-2</v>
+        <v>1.9230769230769201E-2</v>
       </c>
       <c r="H71">
-        <v>0.98113207547169801</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J71">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
       <c r="C72">
-        <v>0.40899999999999997</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="D72">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E72">
-        <v>311.99799999999999</v>
+        <v>313.73599999999999</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>1.9230769230769201E-2</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="J72">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3486,31 +3495,31 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C73">
-        <v>0.33900000000000002</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="D73">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="E73">
-        <v>637.16399999999999</v>
+        <v>112.221</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>7.69230769230769E-2</v>
+        <v>0.44</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="J73">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3519,64 +3528,64 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C74">
-        <v>0.16</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D74">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E74">
-        <v>121.965</v>
+        <v>173.49199999999999</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>0.61538461538461497</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="J74">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>0.27700000000000002</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D75">
-        <v>55</v>
+        <v>424</v>
       </c>
       <c r="E75">
-        <v>263.86399999999998</v>
+        <v>492.16199999999998</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0.98076923076922995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="J75">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3585,64 +3594,64 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C76">
-        <v>0.17100000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="D76">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="E76">
-        <v>321.197</v>
+        <v>175.32599999999999</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1.9230769230769201E-2</v>
+        <v>0.86363636363636298</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J76">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C77">
-        <v>0.36799999999999999</v>
+        <v>0.377</v>
       </c>
       <c r="D77">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>280.459</v>
+        <v>23.751000000000001</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0.115384615384615</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J77">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3651,31 +3660,31 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C78">
-        <v>0.72</v>
+        <v>0.376</v>
       </c>
       <c r="D78">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>549.15700000000004</v>
+        <v>12.972</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0.42307692307692302</v>
+        <v>0.75</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="J78">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3687,28 +3696,28 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>0.249</v>
+        <v>0.374</v>
       </c>
       <c r="D79">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E79">
-        <v>205.642</v>
+        <v>307.697</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0.42307692307692302</v>
+        <v>0.64</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="J79">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3717,31 +3726,31 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C80">
-        <v>0.17100000000000001</v>
+        <v>0.374</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E80">
-        <v>34.014000000000003</v>
+        <v>308.10599999999999</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.96</v>
+        <v>0.54054054054054002</v>
       </c>
       <c r="H80">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="J80">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3750,31 +3759,31 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C81">
-        <v>0.56399999999999995</v>
+        <v>0.374</v>
       </c>
       <c r="D81">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E81">
-        <v>247.81200000000001</v>
+        <v>46.777999999999999</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0.58823529411764697</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J81">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3783,22 +3792,22 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C82">
-        <v>0.20399999999999999</v>
+        <v>0.372</v>
       </c>
       <c r="D82">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="E82">
-        <v>382.803</v>
+        <v>12.145</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.31578947368421001</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3807,40 +3816,40 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J82">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C83">
-        <v>0.67900000000000005</v>
+        <v>0.371</v>
       </c>
       <c r="D83">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>298.63400000000001</v>
+        <v>13.2</v>
       </c>
       <c r="F83">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>0.88</v>
+        <v>0.76470588235294101</v>
       </c>
       <c r="H83">
-        <v>0.16</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="I83">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J83">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3849,64 +3858,64 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84">
-        <v>0.45200000000000001</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D84">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="E84">
-        <v>198.80099999999999</v>
+        <v>280.459</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0.94</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="H84">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J84">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D85">
         <v>10</v>
       </c>
-      <c r="B85" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="D85">
-        <v>122</v>
-      </c>
       <c r="E85">
-        <v>290.58699999999999</v>
+        <v>82.816999999999993</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0.26</v>
+        <v>0.92857142857142805</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J85">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3915,130 +3924,130 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C86">
-        <v>0.60399999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E86">
-        <v>6.4420000000000002</v>
+        <v>193.55799999999999</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="J86">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <v>0.17499999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="D87">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>144.36199999999999</v>
+        <v>12.564</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>0.14285714285714199</v>
       </c>
       <c r="G87">
-        <v>0.45833333333333298</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="J87">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>0.377</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>23.751000000000001</v>
+        <v>26.170999999999999</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>6.6666666666666596E-2</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J88">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C89">
-        <v>0.48299999999999998</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>25.175000000000001</v>
+        <v>12.651999999999999</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.60869565217391297</v>
+        <v>0.8</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="J89">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4047,88 +4056,88 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C90">
-        <v>0.155</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D90">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="E90">
-        <v>311.89699999999999</v>
+        <v>42.561</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="G90">
-        <v>0.155555555555555</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>0.234375</v>
       </c>
       <c r="I90">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="J90">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C91">
-        <v>0.35599999999999998</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D91">
+        <v>37</v>
+      </c>
+      <c r="E91">
+        <v>98.39</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>42</v>
+      </c>
+      <c r="J91">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
         <v>3</v>
-      </c>
-      <c r="E91">
-        <v>26.170999999999999</v>
-      </c>
-      <c r="F91">
-        <v>6.6666666666666596E-2</v>
-      </c>
-      <c r="G91">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>45</v>
-      </c>
-      <c r="J91">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C92">
-        <v>0.27</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="D92">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E92">
-        <v>206.328</v>
+        <v>268.43</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4137,73 +4146,73 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J92">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C93">
-        <v>0.53800000000000003</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D93">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>67.286000000000001</v>
+        <v>35.673999999999999</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.42857142857142799</v>
       </c>
       <c r="G93">
-        <v>0.13636363636363599</v>
+        <v>1</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J93">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
       </c>
       <c r="C94">
-        <v>0.38</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D94">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="E94">
-        <v>175.32599999999999</v>
+        <v>637.16399999999999</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0.86363636363636298</v>
+        <v>7.69230769230769E-2</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J94">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4211,32 +4220,32 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>18</v>
-      </c>
-      <c r="B95" t="s">
-        <v>15</v>
+      <c r="A95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C95">
-        <v>0.31</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D95">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="E95">
-        <v>69.98</v>
+        <v>433.911</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.95348837209302295</v>
+        <v>0.99</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="J95">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4245,31 +4254,31 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C96">
-        <v>0.63900000000000001</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="E96">
-        <v>79.843000000000004</v>
+        <v>146.27799999999999</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.69767441860465096</v>
+        <v>0.83870967741935398</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J96">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4278,97 +4287,97 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C97">
-        <v>0.26600000000000001</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E97">
-        <v>26.314</v>
+        <v>66.149000000000001</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>4.0540540540540501E-2</v>
       </c>
       <c r="G97">
-        <v>0.81395348837209303</v>
+        <v>0.91891891891891897</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>0.14864864864864799</v>
       </c>
       <c r="I97">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="J97">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D98">
+        <v>44</v>
+      </c>
+      <c r="E98">
+        <v>145.55099999999999</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>35</v>
       </c>
-      <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D98">
-        <v>4</v>
-      </c>
-      <c r="E98">
-        <v>28.759</v>
-      </c>
-      <c r="F98">
-        <v>2.3809523809523801E-2</v>
-      </c>
-      <c r="G98">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="H98">
-        <v>0.14285714285714199</v>
-      </c>
-      <c r="I98">
-        <v>42</v>
-      </c>
       <c r="J98">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" t="s">
         <v>12</v>
       </c>
-      <c r="B99" t="s">
-        <v>40</v>
-      </c>
       <c r="C99">
-        <v>0.16700000000000001</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D99">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>159.023</v>
+        <v>32.387999999999998</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0.90476190476190399</v>
+        <v>0.89024390243902396</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="J99">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4377,55 +4386,55 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C100">
-        <v>0.26100000000000001</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>587</v>
       </c>
       <c r="E100">
-        <v>19.175999999999998</v>
+        <v>608.96299999999997</v>
       </c>
       <c r="F100">
-        <v>9.5238095238095205E-2</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0.90476190476190399</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J100">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>0.46899999999999997</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D101">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E101">
-        <v>130.71600000000001</v>
+        <v>142.143</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1.6129032258064498E-2</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -4434,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="J101">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4443,196 +4452,196 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>20.32</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>22</v>
       </c>
-      <c r="B102" t="s">
-        <v>24</v>
-      </c>
-      <c r="C102">
-        <v>0.223</v>
-      </c>
-      <c r="D102">
-        <v>43</v>
-      </c>
-      <c r="E102">
-        <v>101.419</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>2.3809523809523801E-2</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>42</v>
-      </c>
       <c r="J102">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D103">
+        <v>23</v>
+      </c>
+      <c r="E103">
+        <v>88.343000000000004</v>
+      </c>
+      <c r="F103">
+        <v>0.95</v>
+      </c>
+      <c r="G103">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H103">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I103">
         <v>40</v>
       </c>
-      <c r="B103" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="D103">
-        <v>37</v>
-      </c>
-      <c r="E103">
-        <v>98.39</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>42</v>
-      </c>
       <c r="J103">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C104">
-        <v>0.13400000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D104">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="E104">
-        <v>53.154000000000003</v>
+        <v>244.029</v>
       </c>
       <c r="F104">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J104">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B105" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C105">
-        <v>0.44400000000000001</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="D105">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="E105">
-        <v>176.01</v>
+        <v>642.73</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J105">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C106">
-        <v>0.63100000000000001</v>
+        <v>0.318</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>642</v>
       </c>
       <c r="E106">
-        <v>20.32</v>
+        <v>639.43700000000001</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="J106">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C107">
-        <v>0.32100000000000001</v>
+        <v>0.317</v>
       </c>
       <c r="D107">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E107">
-        <v>88.343000000000004</v>
+        <v>399.65300000000002</v>
       </c>
       <c r="F107">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="G107">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H107">
-        <v>0.82499999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="I107">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J107">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4641,31 +4650,31 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C108">
-        <v>0.27200000000000002</v>
+        <v>0.316</v>
       </c>
       <c r="D108">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>107.794</v>
+        <v>19.914999999999999</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>5.4054054054054002E-2</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="J108">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4674,64 +4683,64 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" t="s">
         <v>15</v>
       </c>
-      <c r="B109" t="s">
-        <v>18</v>
-      </c>
       <c r="C109">
-        <v>0.17899999999999999</v>
+        <v>0.313</v>
       </c>
       <c r="D109">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>136.416</v>
+        <v>10.875</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J109">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C110">
-        <v>0.20699999999999999</v>
+        <v>0.312</v>
       </c>
       <c r="D110">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="E110">
-        <v>266.93400000000003</v>
+        <v>141.58600000000001</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>2.94117647058823E-2</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="J110">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4740,163 +4749,163 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C111">
-        <v>0.17199999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="D111">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="E111">
-        <v>218.69300000000001</v>
+        <v>143.03</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>0.74074074074074003</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J111">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" t="s">
         <v>15</v>
       </c>
-      <c r="B112" t="s">
-        <v>13</v>
-      </c>
       <c r="C112">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="D112">
-        <v>233</v>
+        <v>7</v>
       </c>
       <c r="E112">
-        <v>244.029</v>
+        <v>69.98</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>0.95348837209302295</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J112">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C113">
-        <v>0.33200000000000002</v>
+        <v>0.309</v>
       </c>
       <c r="D113">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E113">
-        <v>145.55099999999999</v>
+        <v>30.510999999999999</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1.4492753623188401E-2</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>0.98550724637681097</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>7.2463768115942004E-2</v>
       </c>
       <c r="I113">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="J113">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C114">
-        <v>0.28599999999999998</v>
+        <v>0.307</v>
       </c>
       <c r="D114">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="E114">
-        <v>113.232</v>
+        <v>69.298000000000002</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>2.8571428571428501E-2</v>
+        <v>0.76190476190476097</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J114">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B115" t="s">
         <v>13</v>
       </c>
       <c r="C115">
-        <v>0.33300000000000002</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D115">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="E115">
-        <v>146.27799999999999</v>
+        <v>73.923000000000002</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0.83870967741935398</v>
+        <v>7.69230769230769E-2</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J115">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4905,64 +4914,64 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C116">
-        <v>0.56499999999999995</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D116">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="E116">
-        <v>162.916</v>
+        <v>234.88</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0.86666666666666603</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J116">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>57</v>
-      </c>
-      <c r="B117" t="s">
-        <v>21</v>
+      <c r="A117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C117">
-        <v>0.53</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E117">
-        <v>31.175999999999998</v>
+        <v>247.66800000000001</v>
       </c>
       <c r="F117">
-        <v>3.3333333333333298E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J117">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4971,64 +4980,64 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C118">
-        <v>0.46100000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="D118">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E118">
-        <v>132.81100000000001</v>
+        <v>233.24100000000001</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="G118">
-        <v>0.56666666666666599</v>
+        <v>0.04</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I118">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J118">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>46</v>
-      </c>
-      <c r="B119" t="s">
-        <v>11</v>
+      <c r="A119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="D119">
-        <v>6</v>
+        <v>261</v>
       </c>
       <c r="E119">
-        <v>6.9820000000000002</v>
+        <v>562.80200000000002</v>
       </c>
       <c r="F119">
-        <v>3.4482758620689599E-2</v>
+        <v>0.47</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I119">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="J119">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5037,64 +5046,64 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C120">
-        <v>0.19400000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D120">
         <v>2</v>
       </c>
       <c r="E120">
-        <v>19.175999999999998</v>
+        <v>15.643000000000001</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>4.7619047619047603E-2</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>0.22222222222222199</v>
       </c>
       <c r="I120">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="J120">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>32</v>
-      </c>
-      <c r="B121" t="s">
-        <v>24</v>
+      <c r="A121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C121">
-        <v>0.26900000000000002</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E121">
-        <v>26.553999999999998</v>
+        <v>59.43</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="G121">
-        <v>0.96296296296296202</v>
+        <v>0.77</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="J121">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5103,58 +5112,58 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C122">
-        <v>0.17699999999999999</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D122">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E122">
-        <v>29.754999999999999</v>
+        <v>135.833</v>
       </c>
       <c r="F122">
-        <v>3.8461538461538401E-2</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H122">
-        <v>0.46153846153846101</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J122">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
         <v>20</v>
       </c>
-      <c r="B123" t="s">
-        <v>34</v>
-      </c>
       <c r="C123">
-        <v>0.71199999999999997</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="D123">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="E123">
-        <v>547.91399999999999</v>
+        <v>283.30099999999999</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -5169,64 +5178,64 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C124">
-        <v>0.31900000000000001</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="D124">
-        <v>281</v>
+        <v>3</v>
       </c>
       <c r="E124">
-        <v>642.73</v>
+        <v>15.25</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J124">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
       </c>
       <c r="C125">
-        <v>0.39500000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D125">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="E125">
-        <v>112.221</v>
+        <v>367.54</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>0.445945945945945</v>
       </c>
       <c r="G125">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="J125">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5235,31 +5244,31 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>0.40799999999999997</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="D126">
-        <v>261</v>
+        <v>101</v>
       </c>
       <c r="E126">
-        <v>313.73599999999999</v>
+        <v>113.232</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>2.8571428571428501E-2</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J126">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5268,31 +5277,31 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C127">
-        <v>0.29799999999999999</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="D127">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="E127">
-        <v>283.30099999999999</v>
+        <v>81.352999999999994</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>0.88</v>
+        <v>0.27272727272727199</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J127">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5301,31 +5310,31 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>55</v>
+      </c>
+      <c r="B128" t="s">
         <v>11</v>
       </c>
-      <c r="B128" t="s">
-        <v>20</v>
-      </c>
       <c r="C128">
-        <v>0.25600000000000001</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="D128">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="E128">
-        <v>210.726</v>
+        <v>7.7439999999999998</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
       <c r="G128">
-        <v>0.24</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J128">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5334,31 +5343,31 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
         <v>36</v>
       </c>
-      <c r="B129" t="s">
-        <v>21</v>
-      </c>
       <c r="C129">
-        <v>0.52100000000000002</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="D129">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E129">
-        <v>148.089</v>
+        <v>81.519000000000005</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129">
-        <v>0.8</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J129">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5367,31 +5376,31 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C130">
-        <v>0.34899999999999998</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D130">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="E130">
-        <v>268.43</v>
+        <v>69.363</v>
       </c>
       <c r="F130">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>0.28571428571428498</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J130">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5400,31 +5409,31 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B131" t="s">
         <v>36</v>
       </c>
       <c r="C131">
-        <v>0.20899999999999999</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D131">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="E131">
-        <v>199.31</v>
+        <v>128.20400000000001</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>0.04</v>
+        <v>4.7619047619047603E-2</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J131">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5433,31 +5442,31 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C132">
-        <v>0.65800000000000003</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D132">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E132">
-        <v>186.97399999999999</v>
+        <v>263.86399999999998</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>0.2</v>
+        <v>0.98076923076922995</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J132">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5466,163 +5475,163 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C133">
-        <v>0.189</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D133">
-        <v>422</v>
+        <v>349</v>
       </c>
       <c r="E133">
-        <v>380.935</v>
+        <v>354.62200000000001</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133">
-        <v>0.28000000000000003</v>
+        <v>1.6129032258064498E-2</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J133">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B134" t="s">
         <v>36</v>
       </c>
       <c r="C134">
-        <v>0.20599999999999999</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="D134">
-        <v>431</v>
+        <v>107</v>
       </c>
       <c r="E134">
-        <v>387.87599999999998</v>
+        <v>120.774</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J134">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C135">
-        <v>0.23</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="D135">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E135">
-        <v>100.874</v>
+        <v>107.794</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>5.4054054054054002E-2</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J135">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C136">
-        <v>0.56200000000000006</v>
+        <v>0.27</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="E136">
-        <v>66.968000000000004</v>
+        <v>206.328</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J136">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C137">
-        <v>0.151</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="D137">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E137">
-        <v>124.267</v>
+        <v>26.553999999999998</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137">
-        <v>0.73913043478260798</v>
+        <v>0.96296296296296202</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J137">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5631,31 +5640,31 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>26.526</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0.73684210526315697</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
         <v>19</v>
-      </c>
-      <c r="C138">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>20.32</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>22</v>
       </c>
       <c r="J138">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5664,262 +5673,262 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C139">
-        <v>0.22900000000000001</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D139">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E139">
-        <v>7.9409999999999998</v>
+        <v>26.314</v>
       </c>
       <c r="F139">
-        <v>0.31818181818181801</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>0.40909090909090901</v>
+        <v>0.81395348837209303</v>
       </c>
       <c r="H139">
-        <v>4.54545454545454E-2</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J139">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>36</v>
+      </c>
+      <c r="B140" t="s">
         <v>24</v>
       </c>
-      <c r="B140" t="s">
-        <v>36</v>
-      </c>
       <c r="C140">
-        <v>0.27800000000000002</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="D140">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="E140">
-        <v>128.20400000000001</v>
+        <v>74.953999999999994</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
       <c r="G140">
-        <v>4.7619047619047603E-2</v>
+        <v>0.35294117647058798</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J140">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C141">
-        <v>0.307</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D141">
-        <v>14</v>
+        <v>321</v>
       </c>
       <c r="E141">
-        <v>69.298000000000002</v>
+        <v>337.995</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
       <c r="G141">
-        <v>0.76190476190476097</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J141">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C142">
-        <v>0.249</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="E142">
-        <v>12.972</v>
+        <v>201.536</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J142">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C143">
-        <v>0.18</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="D143">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="E143">
-        <v>138.46199999999999</v>
+        <v>19.175999999999998</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>9.5238095238095205E-2</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>0.90476190476190399</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J143">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C144">
-        <v>0.372</v>
+        <v>0.26</v>
       </c>
       <c r="D144">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>12.145</v>
+        <v>2.9780000000000002</v>
       </c>
       <c r="F144">
-        <v>0.31578947368421001</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I144">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J144">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C145">
-        <v>0.26900000000000002</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="E145">
-        <v>26.526</v>
+        <v>246.25299999999999</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>8.0645161290322495E-2</v>
       </c>
       <c r="G145">
-        <v>0.73684210526315697</v>
+        <v>0.98387096774193505</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>4.8387096774193498E-2</v>
       </c>
       <c r="I145">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="J145">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C146">
-        <v>0.61899999999999999</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E146">
-        <v>19.914999999999999</v>
+        <v>210.726</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
       <c r="I146">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J146">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5928,64 +5937,64 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C147">
-        <v>0.21299999999999999</v>
+        <v>0.249</v>
       </c>
       <c r="D147">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="E147">
-        <v>270.64600000000002</v>
+        <v>205.642</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>0.42307692307692302</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J147">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C148">
-        <v>0.48099999999999998</v>
+        <v>0.249</v>
       </c>
       <c r="D148">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>136.66200000000001</v>
+        <v>12.972</v>
       </c>
       <c r="F148">
         <v>0</v>
       </c>
       <c r="G148">
-        <v>5.5555555555555497E-2</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J148">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5994,31 +6003,31 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B149" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C149">
-        <v>0.70399999999999996</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>25.032</v>
+        <v>14.875999999999999</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149">
-        <v>0.77777777777777701</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J149">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6027,97 +6036,97 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C150">
-        <v>0.16800000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="D150">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E150">
-        <v>40.664999999999999</v>
+        <v>100.874</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>0.41176470588235198</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J150">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
       </c>
       <c r="C151">
-        <v>0.42399999999999999</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="D151">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="E151">
-        <v>102.578</v>
+        <v>7.9409999999999998</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>0.31818181818181801</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>0.40909090909090901</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>4.54545454545454E-2</v>
       </c>
       <c r="I151">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J151">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C152">
-        <v>0.374</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D152">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="E152">
-        <v>46.777999999999999</v>
+        <v>290.72899999999998</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152">
-        <v>0.58823529411764697</v>
+        <v>0.118421052631578</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="J152">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6126,31 +6135,31 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C153">
-        <v>0.26300000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D153">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="E153">
-        <v>74.953999999999994</v>
+        <v>290.58699999999999</v>
       </c>
       <c r="F153">
         <v>0</v>
       </c>
       <c r="G153">
-        <v>0.35294117647058798</v>
+        <v>0.26</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J153">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6159,64 +6168,64 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C154">
-        <v>0.371</v>
+        <v>0.223</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E154">
-        <v>13.2</v>
+        <v>101.419</v>
       </c>
       <c r="F154">
         <v>0</v>
       </c>
       <c r="G154">
-        <v>0.76470588235294101</v>
+        <v>2.3809523809523801E-2</v>
       </c>
       <c r="H154">
-        <v>5.8823529411764698E-2</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J154">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B155" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C155">
-        <v>0.67600000000000005</v>
+        <v>0.223</v>
       </c>
       <c r="D155">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E155">
-        <v>163.28399999999999</v>
+        <v>7.7439999999999998</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
       <c r="G155">
-        <v>5.8823529411764698E-2</v>
+        <v>0.4</v>
       </c>
       <c r="H155">
         <v>0</v>
       </c>
       <c r="I155">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J155">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6225,361 +6234,361 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C156">
-        <v>0.29899999999999999</v>
+        <v>0.221</v>
       </c>
       <c r="D156">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E156">
-        <v>135.833</v>
+        <v>11.574</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J156">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C157">
-        <v>0.30499999999999999</v>
+        <v>0.214</v>
       </c>
       <c r="D157">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="E157">
-        <v>234.88</v>
+        <v>276.26499999999999</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="J157">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B158" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C158">
-        <v>0.19800000000000001</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="D158">
-        <v>73</v>
+        <v>290</v>
       </c>
       <c r="E158">
-        <v>78.430999999999997</v>
+        <v>270.64600000000002</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
       <c r="I158">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J158">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C159">
-        <v>0.316</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="E159">
-        <v>19.914999999999999</v>
+        <v>199.31</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J159">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
+        <v>40</v>
+      </c>
+      <c r="C160">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="D160">
+        <v>280</v>
+      </c>
+      <c r="E160">
+        <v>266.93400000000003</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
         <v>36</v>
       </c>
-      <c r="C160">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="D160">
-        <v>107</v>
-      </c>
-      <c r="E160">
-        <v>120.774</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160">
-        <v>15</v>
-      </c>
       <c r="J160">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C161">
-        <v>0.29199999999999998</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D161">
+        <v>431</v>
+      </c>
+      <c r="E161">
+        <v>387.87599999999998</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>25</v>
+      </c>
+      <c r="J161">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
         <v>3</v>
-      </c>
-      <c r="E161">
-        <v>15.25</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>0.6</v>
-      </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161">
-        <v>15</v>
-      </c>
-      <c r="J161">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C162">
-        <v>0.16800000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="D162">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="E162">
-        <v>9.8859999999999992</v>
+        <v>382.803</v>
       </c>
       <c r="F162">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>0.53333333333333299</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J162">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C163">
-        <v>0.36199999999999999</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="E163">
-        <v>12.564</v>
+        <v>78.430999999999997</v>
       </c>
       <c r="F163">
-        <v>0.14285714285714199</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>0.71428571428571397</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="I163">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J163">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C164">
-        <v>0.34799999999999998</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D164">
+        <v>67</v>
+      </c>
+      <c r="E164">
+        <v>188.006</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0.625</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>8</v>
+      </c>
+      <c r="J164">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="D165">
+        <v>258</v>
+      </c>
+      <c r="E165">
+        <v>394.01600000000002</v>
+      </c>
+      <c r="F165">
+        <v>2.6315789473684199E-2</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>2.6315789473684199E-2</v>
+      </c>
+      <c r="I165">
+        <v>76</v>
+      </c>
+      <c r="J165">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
         <v>3</v>
-      </c>
-      <c r="E164">
-        <v>35.673999999999999</v>
-      </c>
-      <c r="F164">
-        <v>0.42857142857142799</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-      <c r="H164">
-        <v>0</v>
-      </c>
-      <c r="I164">
-        <v>14</v>
-      </c>
-      <c r="J164">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>26</v>
-      </c>
-      <c r="B165" t="s">
-        <v>20</v>
-      </c>
-      <c r="C165">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="D165">
-        <v>45</v>
-      </c>
-      <c r="E165">
-        <v>173.49199999999999</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-      <c r="G165">
-        <v>0.61538461538461497</v>
-      </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-      <c r="I165">
-        <v>13</v>
-      </c>
-      <c r="J165">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C166">
-        <v>0.30599999999999999</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D166">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>73.923000000000002</v>
+        <v>19.175999999999998</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
-        <v>7.69230769230769E-2</v>
+        <v>1</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
       <c r="I166">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J166">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6588,91 +6597,91 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C167">
-        <v>0.56100000000000005</v>
+        <v>0.193</v>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E167">
-        <v>43.845999999999997</v>
+        <v>9.1649999999999991</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="G167">
-        <v>0.61538461538461497</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J167">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B168" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C168">
         <v>0.189</v>
       </c>
       <c r="D168">
-        <v>40</v>
+        <v>422</v>
       </c>
       <c r="E168">
-        <v>83.04</v>
+        <v>380.935</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J168">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C169">
-        <v>0.66200000000000003</v>
+        <v>0.189</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E169">
-        <v>67.795000000000002</v>
+        <v>83.04</v>
       </c>
       <c r="F169">
         <v>0</v>
       </c>
       <c r="G169">
-        <v>0.92307692307692302</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -6682,24 +6691,24 @@
       </c>
       <c r="J169">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B170" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C170">
-        <v>0.26200000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="D170">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E170">
-        <v>201.536</v>
+        <v>97.168999999999997</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -6711,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="I170">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J170">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6720,163 +6729,163 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C171">
-        <v>0.193</v>
+        <v>0.18</v>
       </c>
       <c r="D171">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="E171">
-        <v>9.1649999999999991</v>
+        <v>138.46199999999999</v>
       </c>
       <c r="F171">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>8.3333333333333301E-2</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="I171">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J171">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B172" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C172">
-        <v>0.23599999999999999</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="E172">
-        <v>14.875999999999999</v>
+        <v>136.416</v>
       </c>
       <c r="F172">
         <v>0</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J172">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C173">
-        <v>0.56999999999999995</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E173">
-        <v>6.9720000000000004</v>
+        <v>147.018</v>
       </c>
       <c r="F173">
-        <v>9.0909090909090898E-2</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="J173">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C174">
-        <v>0.16700000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="D174">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="E174">
-        <v>216.011</v>
+        <v>29.754999999999999</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>3.8461538461538401E-2</v>
       </c>
       <c r="G174">
-        <v>9.0909090909090898E-2</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>0.46153846153846101</v>
       </c>
       <c r="I174">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J174">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B175" t="s">
         <v>26</v>
       </c>
       <c r="C175">
-        <v>0.28599999999999998</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D175">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E175">
-        <v>81.352999999999994</v>
+        <v>144.36199999999999</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
       <c r="G175">
-        <v>0.27272727272727199</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="H175">
         <v>0</v>
       </c>
       <c r="I175">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="J175">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6885,19 +6894,19 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C176">
-        <v>0.433</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="D176">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="E176">
-        <v>80.546000000000006</v>
+        <v>218.69300000000001</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -6909,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="I176">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J176">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6918,64 +6927,64 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C177">
-        <v>0.13600000000000001</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D177">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="E177">
-        <v>37.47</v>
+        <v>321.197</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
       <c r="G177">
-        <v>0.1</v>
+        <v>1.9230769230769201E-2</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="J177">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B178" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C178">
-        <v>0.57199999999999995</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D178">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E178">
-        <v>106.557</v>
+        <v>34.014000000000003</v>
       </c>
       <c r="F178">
         <v>0</v>
       </c>
       <c r="G178">
-        <v>0.4</v>
+        <v>0.96</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I178">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J178">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6984,163 +6993,163 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B179" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C179">
-        <v>0.67300000000000004</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="D179">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E179">
-        <v>165.49700000000001</v>
+        <v>67.016000000000005</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179">
-        <v>0.44444444444444398</v>
+        <v>3.7735849056603703E-2</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>0.98113207547169801</v>
       </c>
       <c r="I179">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="J179">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B180" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C180">
-        <v>0.28299999999999997</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="D180">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E180">
-        <v>81.519000000000005</v>
+        <v>40.664999999999999</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180">
-        <v>0.11111111111111099</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>0.41176470588235198</v>
       </c>
       <c r="I180">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J180">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C181">
-        <v>0.41399999999999998</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="D181">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="E181">
-        <v>101.7</v>
+        <v>9.8859999999999992</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>0.53333333333333299</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J181">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C182">
-        <v>0.313</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="E182">
-        <v>10.875</v>
+        <v>159.023</v>
       </c>
       <c r="F182">
-        <v>0.11111111111111099</v>
+        <v>0</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>0.90476190476190399</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="J182">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C183">
-        <v>0.85499999999999998</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="E183">
-        <v>14.875999999999999</v>
+        <v>216.011</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J183">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7149,31 +7158,31 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C184">
-        <v>0.36299999999999999</v>
+        <v>0.161</v>
       </c>
       <c r="D184">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="E184">
-        <v>193.55799999999999</v>
+        <v>208.24100000000001</v>
       </c>
       <c r="F184">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="H184">
         <v>0</v>
       </c>
       <c r="I184">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="J184">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7182,64 +7191,64 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B185" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C185">
-        <v>0.63200000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="E185">
-        <v>13.4</v>
+        <v>121.965</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="J185">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C186">
-        <v>0.376</v>
+        <v>0.156</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="E186">
-        <v>12.972</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186">
-        <v>0.75</v>
+        <v>0.44871794871794801</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="J186">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7248,64 +7257,64 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C187">
-        <v>0.41099999999999998</v>
+        <v>0.155</v>
       </c>
       <c r="D187">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E187">
-        <v>219.17</v>
+        <v>311.89699999999999</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>0.155555555555555</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J187">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C188">
-        <v>0.19800000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="D188">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="E188">
-        <v>188.006</v>
+        <v>15.36</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>0.625</v>
+        <v>0.42857142857142799</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J188">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7314,64 +7323,64 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C189">
-        <v>0.221</v>
+        <v>0.152</v>
       </c>
       <c r="D189">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E189">
-        <v>11.574</v>
+        <v>191.83</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1.47058823529411E-2</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>0.26470588235294101</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2.94117647058823E-2</v>
       </c>
       <c r="I189">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="J189">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C190">
-        <v>0.44900000000000001</v>
+        <v>0.151</v>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E190">
-        <v>46.05</v>
+        <v>124.267</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>0.73913043478260798</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J190">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7380,130 +7389,130 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B191" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C191">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="E191">
-        <v>15.36</v>
+        <v>189.941</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>1.85185185185185E-2</v>
       </c>
       <c r="G191">
-        <v>0.42857142857142799</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="J191">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C192">
-        <v>0.28199999999999997</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D192">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E192">
-        <v>69.363</v>
+        <v>134.672</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>0.24175824175824101</v>
       </c>
       <c r="G192">
-        <v>0.28571428571428498</v>
+        <v>2.19780219780219E-2</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>0.17582417582417501</v>
       </c>
       <c r="I192">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="J192">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B193" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C193">
-        <v>0.13500000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D193">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E193">
-        <v>33.218000000000004</v>
+        <v>40.616</v>
       </c>
       <c r="F193">
-        <v>0.66666666666666596</v>
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="H193">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>6</v>
       </c>
       <c r="J193">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B194" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C194">
-        <v>0.14099999999999999</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D194">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E194">
-        <v>40.616</v>
+        <v>37.47</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>0.16666666666666599</v>
+        <v>0.1</v>
       </c>
       <c r="H194">
         <v>0</v>
       </c>
       <c r="I194">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J194">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7512,28 +7521,28 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C195">
-        <v>0.26</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E195">
-        <v>2.9780000000000002</v>
+        <v>33.218000000000004</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="G195">
-        <v>0.66666666666666596</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>0.5</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="I195">
         <v>6</v>
@@ -7545,121 +7554,121 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B196" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C196">
-        <v>0.28599999999999998</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E196">
-        <v>7.7439999999999998</v>
+        <v>53.154000000000003</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G196">
-        <v>0.16666666666666599</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I196">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="J196">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B197" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C197">
-        <v>0.1</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="D197">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="E197">
-        <v>76.537999999999997</v>
+        <v>26.669</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I197">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J197">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B198" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C198">
-        <v>0.35599999999999998</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>311</v>
       </c>
       <c r="E198">
-        <v>12.651999999999999</v>
+        <v>266.05</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G198">
-        <v>0.8</v>
+        <v>0.94666666666666599</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>5.3333333333333302E-2</v>
       </c>
       <c r="I198">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="J198">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B199" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C199">
-        <v>0.182</v>
+        <v>0.12</v>
       </c>
       <c r="D199">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="E199">
-        <v>97.168999999999997</v>
+        <v>152.565</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>0.13793103448275801</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -7668,11 +7677,11 @@
         <v>0</v>
       </c>
       <c r="I199">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="J199">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
@@ -7710,31 +7719,31 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>21</v>
+      </c>
+      <c r="B201" t="s">
         <v>37</v>
       </c>
-      <c r="B201" t="s">
-        <v>30</v>
-      </c>
       <c r="C201">
-        <v>0.13400000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="D201">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="E201">
-        <v>26.669</v>
+        <v>202.95500000000001</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>0.17241379310344801</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>0.2</v>
+        <v>0.18965517241379301</v>
       </c>
       <c r="I201">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="J201">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7743,31 +7752,31 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B202" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C202">
-        <v>0.223</v>
+        <v>0.1</v>
       </c>
       <c r="D202">
+        <v>92</v>
+      </c>
+      <c r="E202">
+        <v>76.537999999999997</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
         <v>6</v>
-      </c>
-      <c r="E202">
-        <v>7.7439999999999998</v>
-      </c>
-      <c r="F202">
-        <v>0</v>
-      </c>
-      <c r="G202">
-        <v>0.4</v>
-      </c>
-      <c r="H202">
-        <v>0</v>
-      </c>
-      <c r="I202">
-        <v>5</v>
       </c>
       <c r="J202">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7776,12 +7785,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:H202">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I202">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7793,12 +7802,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J202">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color theme="4" tint="0.79998168889431442"/>
         <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C202">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/final_data/xlsx/results_850_sig_right.xlsx
+++ b/final_data/xlsx/results_850_sig_right.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelruland/Documents/studium_paderborn/Bachelorarbeit/BA_thesis/final_data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2777D4-2862-1F4B-A537-09CF790FC281}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F7D7D4-67BC-8E41-ACE1-118B931C9FB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_850_sig_right" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -802,7 +809,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93F8B658-F7C3-ED4F-B200-29641A083EC4}" name="Table1" displayName="Table1" ref="A1:J202" totalsRowShown="0">
   <autoFilter ref="A1:J202" xr:uid="{03507D0A-09C7-3641-B8CC-4B1E5166F066}"/>
   <sortState ref="A2:J202">
-    <sortCondition ref="B1:B202"/>
+    <sortCondition ref="A1:A202"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6E31F30E-43AA-574F-8939-968E87617730}" name="antecedent"/>
@@ -1121,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1164,31 +1171,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3">
-        <v>0.13600000000000001</v>
+        <v>0.438</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E2" s="4">
-        <v>37.47</v>
+        <v>195.22900000000001</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G2" s="2">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1197,97 +1204,97 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3">
-        <v>0.14099999999999999</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="E3" s="4">
-        <v>134.672</v>
+        <v>146.27799999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>0.24175824175824101</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>2.19780219780219E-2</v>
+        <v>0.83870967741935398</v>
       </c>
       <c r="H3" s="2">
-        <v>0.17582417582417501</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J3">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3">
-        <v>0.377</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4">
-        <v>23.751000000000001</v>
+        <v>298.63400000000001</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3">
-        <v>0.152</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="4">
-        <v>191.83</v>
+        <v>173.49199999999999</v>
       </c>
       <c r="F5" s="2">
-        <v>1.47058823529411E-2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>0.26470588235294101</v>
+        <v>0.61538461538461497</v>
       </c>
       <c r="H5" s="2">
-        <v>2.94117647058823E-2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="J5">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1296,229 +1303,229 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3">
-        <v>0.13400000000000001</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="E6" s="4">
-        <v>53.154000000000003</v>
+        <v>120.774</v>
       </c>
       <c r="F6" s="2">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="H6" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J6">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
-        <v>0.13500000000000001</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4">
-        <v>33.218000000000004</v>
+        <v>247.81200000000001</v>
       </c>
       <c r="F7" s="2">
-        <v>0.66666666666666596</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0.33333333333333298</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J7">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
-        <v>0.61899999999999999</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="E8" s="4">
-        <v>19.914999999999999</v>
+        <v>198.80099999999999</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I8">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J8">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
-        <v>0.19400000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4">
-        <v>19.175999999999998</v>
+        <v>30.510999999999999</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>1.4492753623188401E-2</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>0.98550724637681097</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>7.2463768115942004E-2</v>
       </c>
       <c r="I9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="J9">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3">
-        <v>0.23</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E10" s="4">
-        <v>100.874</v>
+        <v>26.553999999999998</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>0.96296296296296202</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J10">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
       <c r="C11" s="3">
-        <v>0.20399999999999999</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="D11">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="E11" s="4">
-        <v>382.803</v>
+        <v>65.733999999999995</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>0.79411764705882304</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="J11">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3">
-        <v>0.29199999999999998</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" s="4">
-        <v>15.25</v>
+        <v>26.526</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0.6</v>
+        <v>0.73684210526315697</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J12">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1526,32 +1533,32 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="3">
-        <v>0.26200000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="D13">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="E13" s="4">
-        <v>201.536</v>
+        <v>394.01600000000002</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>2.6315789473684199E-2</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>2.6315789473684199E-2</v>
       </c>
       <c r="I13">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J13">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1560,64 +1567,64 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3">
-        <v>0.28599999999999998</v>
+        <v>0.318</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>642</v>
       </c>
       <c r="E14" s="4">
-        <v>81.352999999999994</v>
+        <v>639.43700000000001</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0.27272727272727199</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="J14">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C15" s="3">
-        <v>0.22500000000000001</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="D15">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="E15" s="4">
-        <v>290.58699999999999</v>
+        <v>1349.45</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0.26</v>
+        <v>0.99</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J15">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1626,31 +1633,31 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3">
-        <v>0.17499999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="D16">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="E16" s="4">
-        <v>144.36199999999999</v>
+        <v>311.89699999999999</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>0.45833333333333298</v>
+        <v>0.155555555555555</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J16">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1659,97 +1666,97 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3">
-        <v>0.32100000000000001</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>281</v>
       </c>
       <c r="E17" s="4">
-        <v>88.343000000000004</v>
+        <v>642.73</v>
       </c>
       <c r="F17" s="2">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>0.82499999999999996</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J17">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3">
-        <v>0.64400000000000002</v>
+        <v>0.189</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>422</v>
       </c>
       <c r="E18" s="4">
-        <v>297.14800000000002</v>
+        <v>380.935</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>0.90789473684210498</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H18" s="2">
-        <v>0.118421052631578</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="J18">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3">
-        <v>0.63900000000000001</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="E19" s="4">
-        <v>79.843000000000004</v>
+        <v>847.197</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0.69767441860465096</v>
+        <v>0.68</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="J19">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1758,58 +1765,58 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D20">
+        <v>311</v>
+      </c>
+      <c r="E20" s="4">
+        <v>266.05</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.94666666666666599</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5.3333333333333302E-2</v>
+      </c>
+      <c r="I20">
+        <v>75</v>
+      </c>
+      <c r="J20">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="D20">
-        <v>21</v>
-      </c>
-      <c r="E20" s="4">
-        <v>288.49400000000003</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.25806451612903197</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>62</v>
-      </c>
-      <c r="J20">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
+      <c r="B21" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="3">
-        <v>0.70099999999999996</v>
+        <v>0.438</v>
       </c>
       <c r="D21">
-        <v>107</v>
+        <v>766</v>
       </c>
       <c r="E21" s="4">
-        <v>1313.992</v>
+        <v>881.77599999999995</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1824,64 +1831,64 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3">
-        <v>0.627</v>
+        <v>0.3</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="E22" s="4">
-        <v>248.24600000000001</v>
+        <v>233.24100000000001</v>
       </c>
       <c r="F22" s="2">
-        <v>1.8867924528301799E-2</v>
+        <v>0.97</v>
       </c>
       <c r="G22" s="2">
-        <v>0.75471698113207497</v>
+        <v>0.04</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="I22">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="J22">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3">
-        <v>0.63200000000000001</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E23" s="4">
-        <v>13.4</v>
+        <v>37.47</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J23">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1890,31 +1897,31 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="3">
-        <v>0.59</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E24" s="4">
-        <v>30.786000000000001</v>
+        <v>88.343000000000004</v>
       </c>
       <c r="F24" s="2">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="G24" s="2">
-        <v>0.69491525423728795</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H24" s="2">
-        <v>0.152542372881355</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="I24">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1923,64 +1930,64 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3">
-        <v>0.67300000000000004</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E25" s="4">
-        <v>165.49700000000001</v>
+        <v>134.672</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>0.24175824175824101</v>
       </c>
       <c r="G25" s="2">
-        <v>0.44444444444444398</v>
+        <v>2.19780219780219E-2</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>0.17582417582417501</v>
       </c>
       <c r="I25">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="J25">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3">
-        <v>0.71199999999999997</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="E26" s="4">
-        <v>547.91399999999999</v>
+        <v>159.023</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>0.6</v>
+        <v>0.90476190476190399</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -1989,64 +1996,64 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3">
-        <v>0.66200000000000003</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>222</v>
       </c>
       <c r="E27" s="4">
-        <v>67.795000000000002</v>
+        <v>246.25299999999999</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>8.0645161290322495E-2</v>
       </c>
       <c r="G27" s="2">
-        <v>0.92307692307692302</v>
+        <v>0.98387096774193505</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>4.8387096774193498E-2</v>
       </c>
       <c r="I27">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="J27">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3">
-        <v>0.65800000000000003</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E28" s="4">
-        <v>186.97399999999999</v>
+        <v>263.86399999999998</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>0.2</v>
+        <v>0.98076923076922995</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J28">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2054,32 +2061,32 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>37</v>
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
       </c>
       <c r="C29" s="3">
-        <v>0.61599999999999999</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D29">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E29" s="4">
-        <v>794.53800000000001</v>
+        <v>188.006</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>0.87</v>
+        <v>0.625</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J29">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2088,31 +2095,31 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3">
-        <v>0.53700000000000003</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E30" s="4">
-        <v>121.001</v>
+        <v>283.30099999999999</v>
       </c>
       <c r="F30" s="2">
-        <v>1.2820512820512799E-2</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>0.91025641025641002</v>
+        <v>0.88</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="J30">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2120,98 +2127,98 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>37</v>
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
       </c>
       <c r="C31" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="D31">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="E31" s="4">
-        <v>469.65899999999999</v>
+        <v>199.31</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J31">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C32" s="3">
-        <v>0.317</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D32">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E32" s="4">
-        <v>399.65300000000002</v>
+        <v>425.46100000000001</v>
       </c>
       <c r="F32" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>100</v>
       </c>
       <c r="J32">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C33" s="3">
-        <v>0.23599999999999999</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>319</v>
       </c>
       <c r="E33" s="4">
-        <v>14.875999999999999</v>
+        <v>409.52</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="J33">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2220,163 +2227,163 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>31.175999999999998</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>30</v>
+      </c>
+      <c r="J34">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" s="4">
+        <v>9.8859999999999992</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+      <c r="J35">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="3">
-        <v>0.309</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34" s="4">
-        <v>30.510999999999999</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1.4492753623188401E-2</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0.98550724637681097</v>
-      </c>
-      <c r="H34" s="2">
-        <v>7.2463768115942004E-2</v>
-      </c>
-      <c r="I34">
-        <v>69</v>
-      </c>
-      <c r="J34">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="C36" s="3">
         <v>0.29899999999999999</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>11</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <v>59.43</v>
       </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
         <v>0.77</v>
       </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35">
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>100</v>
       </c>
-      <c r="J35">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4">
-        <v>19.175999999999998</v>
-      </c>
-      <c r="F36" s="2">
-        <v>9.5238095238095205E-2</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0.90476190476190399</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>42</v>
-      </c>
       <c r="J36">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
       <c r="C37" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D37">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="E37" s="4">
-        <v>367.54</v>
+        <v>66.149000000000001</v>
       </c>
       <c r="F37" s="2">
-        <v>0.445945945945945</v>
+        <v>4.0540540540540501E-2</v>
       </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>0.91891891891891897</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>0.14864864864864799</v>
       </c>
       <c r="I37">
         <v>74</v>
       </c>
       <c r="J37">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C38" s="3">
-        <v>0.32800000000000001</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E38" s="4">
-        <v>32.387999999999998</v>
+        <v>34.014000000000003</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>0.89024390243902396</v>
+        <v>0.96</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I38">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="J38">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2385,97 +2392,97 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C39" s="3">
-        <v>0.35299999999999998</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="D39">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E39" s="4">
-        <v>98.39</v>
+        <v>26.669</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I39">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J39">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="3">
-        <v>0.32400000000000001</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E40" s="4">
-        <v>142.143</v>
+        <v>14.875999999999999</v>
       </c>
       <c r="F40" s="2">
-        <v>1.6129032258064498E-2</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="J40">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>21</v>
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
       </c>
       <c r="C41" s="3">
-        <v>0.3</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D41">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="E41" s="4">
-        <v>562.80200000000002</v>
+        <v>6.9720000000000004</v>
       </c>
       <c r="F41" s="2">
-        <v>0.47</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="G41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J41">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2484,31 +2491,31 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C42" s="3">
-        <v>0.85499999999999998</v>
+        <v>0.372</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E42" s="4">
-        <v>14.875999999999999</v>
+        <v>12.145</v>
       </c>
       <c r="F42" s="2">
-        <v>0</v>
+        <v>0.31578947368421001</v>
       </c>
       <c r="G42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J42">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2520,16 +2527,16 @@
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C43" s="3">
-        <v>0.61</v>
+        <v>0.377</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="4">
-        <v>38.439</v>
+        <v>23.751000000000001</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -2541,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="J43">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2550,64 +2557,64 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C44" s="3">
-        <v>0.371</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4">
-        <v>13.2</v>
+        <v>14.875999999999999</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
       </c>
       <c r="G44" s="2">
-        <v>0.76470588235294101</v>
+        <v>1</v>
       </c>
       <c r="H44" s="2">
-        <v>5.8823529411764698E-2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J44">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="3">
-        <v>0.36799999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="D45">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="E45" s="4">
-        <v>280.459</v>
+        <v>38.439</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
       </c>
       <c r="G45" s="2">
-        <v>0.115384615384615</v>
+        <v>1</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="J45">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2616,130 +2623,130 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
         <v>25</v>
       </c>
-      <c r="B46" t="s">
-        <v>21</v>
-      </c>
       <c r="C46" s="3">
-        <v>0.35399999999999998</v>
+        <v>0.316</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4">
-        <v>42.561</v>
+        <v>19.914999999999999</v>
       </c>
       <c r="F46" s="2">
-        <v>1.5625E-2</v>
+        <v>0</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
       </c>
       <c r="H46" s="2">
-        <v>0.234375</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="J46">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C47" s="3">
-        <v>0.3</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="4">
-        <v>15.643000000000001</v>
+        <v>20.32</v>
       </c>
       <c r="F47" s="2">
-        <v>4.7619047619047603E-2</v>
+        <v>0</v>
       </c>
       <c r="G47" s="2">
-        <v>0.952380952380952</v>
+        <v>1</v>
       </c>
       <c r="H47" s="2">
-        <v>0.22222222222222199</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="J47">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C48" s="3">
-        <v>0.36299999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="D48">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E48" s="4">
-        <v>193.55799999999999</v>
+        <v>29.754999999999999</v>
       </c>
       <c r="F48" s="2">
-        <v>0.25</v>
+        <v>3.8461538461538401E-2</v>
       </c>
       <c r="G48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2">
-        <v>0</v>
+        <v>0.46153846153846101</v>
       </c>
       <c r="I48">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J48">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C49" s="3">
-        <v>0.376</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E49" s="4">
-        <v>12.972</v>
+        <v>40.616</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
       </c>
       <c r="G49" s="2">
-        <v>0.75</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J49">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2748,31 +2755,31 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C50" s="3">
-        <v>0.34899999999999998</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="D50">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E50" s="4">
-        <v>268.43</v>
+        <v>81.519000000000005</v>
       </c>
       <c r="F50" s="2">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G50" s="2">
-        <v>0</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J50">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2781,31 +2788,31 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C51" s="3">
-        <v>0.63100000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E51" s="4">
-        <v>20.32</v>
+        <v>162.916</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
       </c>
       <c r="G51" s="2">
-        <v>1</v>
+        <v>0.86666666666666603</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J51">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -2814,196 +2821,196 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C52" s="3">
-        <v>0.433</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E52" s="4">
-        <v>80.546000000000006</v>
+        <v>132.81100000000001</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>0.56666666666666599</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J52">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53" s="4">
+        <v>7.7439999999999998</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="J53">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="3">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="D53">
-        <v>23</v>
-      </c>
-      <c r="E53" s="4">
-        <v>112.221</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>25</v>
-      </c>
-      <c r="J53">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C54" s="3">
-        <v>0.33600000000000002</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="D54">
-        <v>125</v>
+        <v>2</v>
       </c>
       <c r="E54" s="4">
-        <v>433.911</v>
+        <v>19.175999999999998</v>
       </c>
       <c r="F54" s="2">
-        <v>0</v>
+        <v>9.5238095238095205E-2</v>
       </c>
       <c r="G54" s="2">
-        <v>0.99</v>
+        <v>0.90476190476190399</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C55" s="3">
-        <v>0.312</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D55">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E55" s="4">
-        <v>141.58600000000001</v>
+        <v>26.170999999999999</v>
       </c>
       <c r="F55" s="2">
-        <v>0</v>
+        <v>6.6666666666666596E-2</v>
       </c>
       <c r="G55" s="2">
-        <v>2.94117647058823E-2</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="J55">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
       </c>
       <c r="C56" s="3">
-        <v>0.26</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="E56" s="4">
-        <v>2.9780000000000002</v>
+        <v>367.54</v>
       </c>
       <c r="F56" s="2">
-        <v>0</v>
+        <v>0.445945945945945</v>
       </c>
       <c r="G56" s="2">
-        <v>0.66666666666666596</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="J56">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>21</v>
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
       </c>
       <c r="C57" s="3">
-        <v>0.30099999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="D57">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="E57" s="4">
-        <v>247.66800000000001</v>
+        <v>152.565</v>
       </c>
       <c r="F57" s="2">
-        <v>0.01</v>
+        <v>0.13793103448275801</v>
       </c>
       <c r="G57" s="2">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="J57">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3012,35 +3019,35 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C58" s="3">
-        <v>0.14099999999999999</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="D58">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="E58" s="4">
-        <v>40.616</v>
+        <v>218.69300000000001</v>
       </c>
       <c r="F58" s="2">
         <v>0</v>
       </c>
       <c r="G58" s="2">
-        <v>0.16666666666666599</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J58">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -3048,19 +3055,19 @@
         <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59" s="3">
-        <v>0.12</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="D59">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="E59" s="4">
-        <v>152.565</v>
+        <v>270.64600000000002</v>
       </c>
       <c r="F59" s="2">
-        <v>0.13793103448275801</v>
+        <v>0</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
@@ -3069,97 +3076,97 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="J59">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C60" s="3">
-        <v>0.11899999999999999</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D60">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="E60" s="4">
-        <v>55.14</v>
+        <v>594.95399999999995</v>
       </c>
       <c r="F60" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G60" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="J60">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C61" s="3">
-        <v>0.108</v>
+        <v>0.15</v>
       </c>
       <c r="D61">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="E61" s="4">
-        <v>202.95500000000001</v>
+        <v>189.941</v>
       </c>
       <c r="F61" s="2">
-        <v>0.17241379310344801</v>
+        <v>1.85185185185185E-2</v>
       </c>
       <c r="G61" s="2">
         <v>0</v>
       </c>
       <c r="H61" s="2">
-        <v>0.18965517241379301</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J61">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C62" s="3">
-        <v>0.1</v>
+        <v>0.439</v>
       </c>
       <c r="D62">
-        <v>92</v>
+        <v>482</v>
       </c>
       <c r="E62" s="4">
-        <v>76.537999999999997</v>
+        <v>556.37099999999998</v>
       </c>
       <c r="F62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="2">
         <v>0</v>
@@ -3168,238 +3175,238 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="J62">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" t="s">
-        <v>52</v>
-      </c>
       <c r="C63" s="3">
-        <v>0.16700000000000001</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D63">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="E63" s="4">
-        <v>216.011</v>
+        <v>82.968000000000004</v>
       </c>
       <c r="F63" s="2">
-        <v>0</v>
+        <v>1.20481927710843E-2</v>
       </c>
       <c r="G63" s="2">
-        <v>9.0909090909090898E-2</v>
+        <v>0.92771084337349397</v>
       </c>
       <c r="H63" s="2">
-        <v>0</v>
+        <v>0.62650602409638501</v>
       </c>
       <c r="I63">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="J63">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C64" s="3">
-        <v>0.33200000000000002</v>
+        <v>0.221</v>
       </c>
       <c r="D64">
+        <v>17</v>
+      </c>
+      <c r="E64" s="4">
+        <v>11.574</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>7</v>
       </c>
-      <c r="E64" s="4">
-        <v>66.149000000000001</v>
-      </c>
-      <c r="F64" s="2">
-        <v>4.0540540540540501E-2</v>
-      </c>
-      <c r="G64" s="2">
-        <v>0.91891891891891897</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0.14864864864864799</v>
-      </c>
-      <c r="I64">
-        <v>74</v>
-      </c>
       <c r="J64">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C65" s="3">
-        <v>0.44400000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D65">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E65" s="4">
-        <v>176.01</v>
+        <v>28.759</v>
       </c>
       <c r="F65" s="2">
-        <v>0</v>
+        <v>2.3809523809523801E-2</v>
       </c>
       <c r="G65" s="2">
-        <v>0.125</v>
+        <v>0.85714285714285698</v>
       </c>
       <c r="H65" s="2">
-        <v>0</v>
+        <v>0.14285714285714199</v>
       </c>
       <c r="I65">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C66" s="3">
-        <v>0.48299999999999998</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66" s="4">
-        <v>25.175000000000001</v>
+        <v>6.4420000000000002</v>
       </c>
       <c r="F66" s="2">
         <v>0</v>
       </c>
       <c r="G66" s="2">
-        <v>0.60869565217391297</v>
+        <v>1</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J66">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C67" s="3">
-        <v>0.44900000000000001</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E67" s="4">
-        <v>46.05</v>
+        <v>297.14800000000002</v>
       </c>
       <c r="F67" s="2">
         <v>0</v>
       </c>
       <c r="G67" s="2">
-        <v>1</v>
+        <v>0.90789473684210498</v>
       </c>
       <c r="H67" s="2">
-        <v>0</v>
+        <v>0.118421052631578</v>
       </c>
       <c r="I67">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="J67">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C68" s="3">
-        <v>0.48099999999999998</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D68">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E68" s="4">
-        <v>136.66200000000001</v>
+        <v>55.14</v>
       </c>
       <c r="F68" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G68" s="2">
-        <v>5.5555555555555497E-2</v>
+        <v>0.4</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J68">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C69" s="3">
-        <v>0.46100000000000002</v>
+        <v>0.38</v>
       </c>
       <c r="D69">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="E69" s="4">
-        <v>594.99599999999998</v>
+        <v>175.32599999999999</v>
       </c>
       <c r="F69" s="2">
         <v>0</v>
       </c>
       <c r="G69" s="2">
-        <v>0.28378378378378299</v>
+        <v>0.86363636363636298</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3408,64 +3415,64 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C70" s="3">
-        <v>0.36699999999999999</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="E70" s="4">
-        <v>82.816999999999993</v>
+        <v>128.20400000000001</v>
       </c>
       <c r="F70" s="2">
         <v>0</v>
       </c>
       <c r="G70" s="2">
-        <v>0.92857142857142805</v>
+        <v>4.7619047619047603E-2</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="J70">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C71" s="3">
-        <v>0.374</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D71">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E71" s="4">
-        <v>308.10599999999999</v>
+        <v>263.108</v>
       </c>
       <c r="F71" s="2">
         <v>0</v>
       </c>
       <c r="G71" s="2">
-        <v>0.54054054054054002</v>
+        <v>1</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J71">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3474,229 +3481,229 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="D72">
+        <v>109</v>
+      </c>
+      <c r="E72" s="4">
+        <v>143.03</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0.74074074074074003</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>54</v>
+      </c>
+      <c r="J72">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>47</v>
       </c>
-      <c r="C72" s="3">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="D72">
-        <v>3</v>
-      </c>
-      <c r="E72" s="4">
-        <v>26.553999999999998</v>
-      </c>
-      <c r="F72" s="2">
-        <v>0</v>
-      </c>
-      <c r="G72" s="2">
-        <v>0.96296296296296202</v>
-      </c>
-      <c r="H72" s="2">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>27</v>
-      </c>
-      <c r="J72">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>47</v>
+      <c r="B73" t="s">
+        <v>15</v>
       </c>
       <c r="C73" s="3">
-        <v>0.19600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="D73">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="E73" s="4">
-        <v>394.01600000000002</v>
+        <v>217.08500000000001</v>
       </c>
       <c r="F73" s="2">
-        <v>2.6315789473684199E-2</v>
+        <v>0</v>
       </c>
       <c r="G73" s="2">
-        <v>0</v>
+        <v>0.94736842105263097</v>
       </c>
       <c r="H73" s="2">
-        <v>2.6315789473684199E-2</v>
+        <v>5.2631578947368397E-2</v>
       </c>
       <c r="I73">
         <v>76</v>
       </c>
       <c r="J73">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C74" s="3">
-        <v>0.17100000000000001</v>
+        <v>0.313</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E74" s="4">
-        <v>34.014000000000003</v>
+        <v>10.875</v>
       </c>
       <c r="F74" s="2">
-        <v>0</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="G74" s="2">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="H74" s="2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="J74">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C75" s="3">
-        <v>0.35599999999999998</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
       <c r="E75" s="4">
-        <v>12.651999999999999</v>
+        <v>12.564</v>
       </c>
       <c r="F75" s="2">
-        <v>0</v>
+        <v>0.14285714285714199</v>
       </c>
       <c r="G75" s="2">
-        <v>0.8</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J75">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C76" s="3">
-        <v>0.27</v>
+        <v>0.223</v>
       </c>
       <c r="D76">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="E76" s="4">
-        <v>206.328</v>
+        <v>7.7439999999999998</v>
       </c>
       <c r="F76" s="2">
         <v>0</v>
       </c>
       <c r="G76" s="2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="J76">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C77" s="3">
-        <v>0.249</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E77" s="4">
-        <v>12.972</v>
+        <v>7.9409999999999998</v>
       </c>
       <c r="F77" s="2">
-        <v>0</v>
+        <v>0.31818181818181801</v>
       </c>
       <c r="G77" s="2">
-        <v>1</v>
+        <v>0.40909090909090901</v>
       </c>
       <c r="H77" s="2">
-        <v>0</v>
+        <v>4.54545454545454E-2</v>
       </c>
       <c r="I77">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J77">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C78" s="3">
-        <v>0.26300000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D78">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E78" s="4">
-        <v>74.953999999999994</v>
+        <v>19.175999999999998</v>
       </c>
       <c r="F78" s="2">
         <v>0</v>
       </c>
       <c r="G78" s="2">
-        <v>0.35294117647058798</v>
+        <v>1</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J78">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3705,31 +3712,31 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C79" s="3">
-        <v>0.22500000000000001</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D79">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="E79" s="4">
-        <v>290.72899999999998</v>
+        <v>32.387999999999998</v>
       </c>
       <c r="F79" s="2">
         <v>0</v>
       </c>
       <c r="G79" s="2">
-        <v>0.118421052631578</v>
+        <v>0.89024390243902396</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J79">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3738,64 +3745,64 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C80" s="3">
-        <v>0.223</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80" s="4">
+        <v>26.314</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.81395348837209303</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>43</v>
       </c>
-      <c r="E80" s="4">
-        <v>101.419</v>
-      </c>
-      <c r="F80" s="2">
-        <v>0</v>
-      </c>
-      <c r="G80" s="2">
-        <v>2.3809523809523801E-2</v>
-      </c>
-      <c r="H80" s="2">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>42</v>
-      </c>
       <c r="J80">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C81" s="3">
-        <v>0.17799999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="D81">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E81" s="4">
-        <v>147.018</v>
+        <v>15.36</v>
       </c>
       <c r="F81" s="2">
         <v>0</v>
       </c>
       <c r="G81" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.42857142857142799</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="J81">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3804,31 +3811,31 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C82" s="3">
-        <v>0.16700000000000001</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="D82">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="E82" s="4">
-        <v>159.023</v>
+        <v>43.845999999999997</v>
       </c>
       <c r="F82" s="2">
         <v>0</v>
       </c>
       <c r="G82" s="2">
-        <v>0.90476190476190399</v>
+        <v>0.61538461538461497</v>
       </c>
       <c r="H82" s="2">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="J82">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3837,52 +3844,52 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C83" s="3">
-        <v>0.19800000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D83">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E83" s="4">
-        <v>78.430999999999997</v>
+        <v>98.39</v>
       </c>
       <c r="F83" s="2">
         <v>0</v>
       </c>
       <c r="G83" s="2">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" t="s">
         <v>11</v>
       </c>
-      <c r="B84" t="s">
-        <v>48</v>
-      </c>
       <c r="C84" s="3">
-        <v>0.20699999999999999</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D84">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="E84" s="4">
-        <v>266.93400000000003</v>
+        <v>130.71600000000001</v>
       </c>
       <c r="F84" s="2">
         <v>0</v>
@@ -3894,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J84">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3903,31 +3910,31 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C85" s="3">
-        <v>0.33300000000000002</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="D85">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="E85" s="4">
-        <v>146.27799999999999</v>
+        <v>79.843000000000004</v>
       </c>
       <c r="F85" s="2">
         <v>0</v>
       </c>
       <c r="G85" s="2">
-        <v>0.83870967741935398</v>
+        <v>0.69767441860465096</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J85">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -3936,190 +3943,190 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C86" s="3">
-        <v>0.318</v>
+        <v>0.374</v>
       </c>
       <c r="D86">
-        <v>642</v>
+        <v>7</v>
       </c>
       <c r="E86" s="4">
-        <v>639.43700000000001</v>
+        <v>46.777999999999999</v>
       </c>
       <c r="F86" s="2">
         <v>0</v>
       </c>
       <c r="G86" s="2">
-        <v>0</v>
+        <v>0.58823529411764697</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="J86">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C87" s="3">
-        <v>0.25900000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D87">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="E87" s="4">
-        <v>246.25299999999999</v>
+        <v>67.286000000000001</v>
       </c>
       <c r="F87" s="2">
-        <v>8.0645161290322495E-2</v>
+        <v>0</v>
       </c>
       <c r="G87" s="2">
-        <v>0.98387096774193505</v>
+        <v>0.13636363636363599</v>
       </c>
       <c r="H87" s="2">
-        <v>4.8387096774193498E-2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="J87">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C88" s="3">
-        <v>0.30599999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="D88">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E88" s="4">
-        <v>73.923000000000002</v>
+        <v>100.874</v>
       </c>
       <c r="F88" s="2">
         <v>0</v>
       </c>
       <c r="G88" s="2">
-        <v>7.69230769230769E-2</v>
+        <v>0</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J88">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C89" s="3">
-        <v>0.32</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D89">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="E89" s="4">
-        <v>244.029</v>
+        <v>288.49400000000003</v>
       </c>
       <c r="F89" s="2">
         <v>0</v>
       </c>
       <c r="G89" s="2">
-        <v>0</v>
+        <v>0.25806451612903197</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="J89">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C90" s="3">
-        <v>0.193</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D90">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E90" s="4">
-        <v>9.1649999999999991</v>
+        <v>142.143</v>
       </c>
       <c r="F90" s="2">
-        <v>0.33333333333333298</v>
+        <v>1.6129032258064498E-2</v>
       </c>
       <c r="G90" s="2">
-        <v>8.3333333333333301E-2</v>
+        <v>0</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="J90">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C91" s="3">
-        <v>0.28599999999999998</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="D91">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="E91" s="4">
-        <v>113.232</v>
+        <v>145.55099999999999</v>
       </c>
       <c r="F91" s="2">
         <v>0</v>
       </c>
       <c r="G91" s="2">
-        <v>2.8571428571428501E-2</v>
+        <v>0</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -4134,31 +4141,31 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C92" s="3">
-        <v>0.27500000000000002</v>
+        <v>0.189</v>
       </c>
       <c r="D92">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="E92" s="4">
-        <v>354.62200000000001</v>
+        <v>83.04</v>
       </c>
       <c r="F92" s="2">
         <v>0</v>
       </c>
       <c r="G92" s="2">
-        <v>1.6129032258064498E-2</v>
+        <v>0</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="J92">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4167,196 +4174,196 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C93" s="3">
-        <v>0.3</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D93">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="E93" s="4">
-        <v>233.24100000000001</v>
+        <v>200.685</v>
       </c>
       <c r="F93" s="2">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="G93" s="2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H93" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="J93">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" t="s">
         <v>35</v>
       </c>
-      <c r="B94" t="s">
-        <v>44</v>
-      </c>
       <c r="C94" s="3">
-        <v>0.67900000000000005</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="D94">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="E94" s="4">
-        <v>298.63400000000001</v>
+        <v>382.803</v>
       </c>
       <c r="F94" s="2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G94" s="2">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="H94" s="2">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>50</v>
       </c>
       <c r="J94">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>36</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="A95" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B95" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C95" s="3">
-        <v>0.66700000000000004</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="E95" s="4">
-        <v>65.733999999999995</v>
+        <v>1313.992</v>
       </c>
       <c r="F95" s="2">
         <v>0</v>
       </c>
       <c r="G95" s="2">
-        <v>0.79411764705882304</v>
+        <v>0.94</v>
       </c>
       <c r="H95" s="2">
-        <v>5.8823529411764698E-2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="J95">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C96" s="3">
-        <v>0.67100000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="D96">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="E96" s="4">
-        <v>1349.45</v>
+        <v>562.80200000000002</v>
       </c>
       <c r="F96" s="2">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="G96" s="2">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="H96" s="2">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I96">
         <v>100</v>
       </c>
       <c r="J96">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C97" s="3">
-        <v>0.53</v>
+        <v>0.108</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="E97" s="4">
-        <v>31.175999999999998</v>
+        <v>202.95500000000001</v>
       </c>
       <c r="F97" s="2">
-        <v>3.3333333333333298E-2</v>
+        <v>0.17241379310344801</v>
       </c>
       <c r="G97" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="2">
-        <v>0</v>
+        <v>0.18965517241379301</v>
       </c>
       <c r="I97">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="J97">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C98" s="3">
-        <v>0.67600000000000005</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D98">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="E98" s="4">
-        <v>163.28399999999999</v>
+        <v>637.16399999999999</v>
       </c>
       <c r="F98" s="2">
         <v>0</v>
       </c>
       <c r="G98" s="2">
-        <v>5.8823529411764698E-2</v>
+        <v>7.69230769230769E-2</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J98">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4365,163 +4372,163 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B99" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C99" s="3">
-        <v>0.70399999999999996</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="E99" s="4">
-        <v>25.032</v>
+        <v>321.197</v>
       </c>
       <c r="F99" s="2">
         <v>0</v>
       </c>
       <c r="G99" s="2">
-        <v>0.77777777777777701</v>
+        <v>1.9230769230769201E-2</v>
       </c>
       <c r="H99" s="2">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J99">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C100" s="3">
-        <v>0.72</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D100">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="E100" s="4">
-        <v>549.15700000000004</v>
+        <v>387.87599999999998</v>
       </c>
       <c r="F100" s="2">
         <v>0</v>
       </c>
       <c r="G100" s="2">
-        <v>0.42307692307692302</v>
+        <v>0</v>
       </c>
       <c r="H100" s="2">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="J100">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C101" s="3">
-        <v>0.58899999999999997</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D101">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="E101" s="4">
-        <v>233.398</v>
+        <v>880.69500000000005</v>
       </c>
       <c r="F101" s="2">
-        <v>0.26415094339622602</v>
+        <v>0</v>
       </c>
       <c r="G101" s="2">
-        <v>0.169811320754716</v>
+        <v>0.46</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="J101">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B102" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C102" s="3">
-        <v>0.53800000000000003</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>587</v>
       </c>
       <c r="E102" s="4">
-        <v>28.045000000000002</v>
+        <v>608.96299999999997</v>
       </c>
       <c r="F102" s="2">
-        <v>3.2258064516128997E-2</v>
+        <v>0</v>
       </c>
       <c r="G102" s="2">
-        <v>0.83870967741935398</v>
+        <v>0</v>
       </c>
       <c r="H102" s="2">
-        <v>0.17741935483870899</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J102">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C103" s="3">
-        <v>0.57199999999999995</v>
+        <v>0.156</v>
       </c>
       <c r="D103">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="E103" s="4">
-        <v>106.557</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="F103" s="2">
         <v>0</v>
       </c>
       <c r="G103" s="2">
-        <v>0.4</v>
+        <v>0.44871794871794801</v>
       </c>
       <c r="H103" s="2">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="J103">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4530,64 +4537,64 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C104" s="3">
-        <v>0.34799999999999998</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>719</v>
       </c>
       <c r="E104" s="4">
-        <v>35.673999999999999</v>
+        <v>839.54399999999998</v>
       </c>
       <c r="F104" s="2">
-        <v>0.42857142857142799</v>
+        <v>0</v>
       </c>
       <c r="G104" s="2">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="H104" s="2">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="J104">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C105" s="3">
-        <v>0.52100000000000002</v>
+        <v>0.152</v>
       </c>
       <c r="D105">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E105" s="4">
-        <v>148.089</v>
+        <v>191.83</v>
       </c>
       <c r="F105" s="2">
-        <v>0</v>
+        <v>1.47058823529411E-2</v>
       </c>
       <c r="G105" s="2">
-        <v>0.8</v>
+        <v>0.26470588235294101</v>
       </c>
       <c r="H105" s="2">
-        <v>0</v>
+        <v>2.94117647058823E-2</v>
       </c>
       <c r="I105">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="J105">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4596,97 +4603,97 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C106" s="3">
-        <v>0.63200000000000001</v>
+        <v>0.317</v>
       </c>
       <c r="D106">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="E106" s="4">
-        <v>816.05499999999995</v>
+        <v>399.65300000000002</v>
       </c>
       <c r="F106" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G106" s="2">
-        <v>0.49</v>
+        <v>0.02</v>
       </c>
       <c r="H106" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I106">
         <v>100</v>
       </c>
       <c r="J106">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C107" s="3">
-        <v>0.54400000000000004</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D107">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E107" s="4">
-        <v>246.767</v>
+        <v>42.561</v>
       </c>
       <c r="F107" s="2">
-        <v>1.47058823529411E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="G107" s="2">
-        <v>0.85294117647058798</v>
+        <v>1</v>
       </c>
       <c r="H107" s="2">
-        <v>0</v>
+        <v>0.234375</v>
       </c>
       <c r="I107">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J107">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C108" s="3">
-        <v>0.54700000000000004</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D108">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E108" s="4">
-        <v>450.74700000000001</v>
+        <v>73.923000000000002</v>
       </c>
       <c r="F108" s="2">
         <v>0</v>
       </c>
       <c r="G108" s="2">
-        <v>0.73</v>
+        <v>7.69230769230769E-2</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="J108">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4695,31 +4702,31 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C109" s="3">
-        <v>0.438</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="D109">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E109" s="4">
-        <v>195.22900000000001</v>
+        <v>163.28399999999999</v>
       </c>
       <c r="F109" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G109" s="2">
-        <v>0.26</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="H109" s="2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J109">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4761,64 +4768,64 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C111" s="3">
-        <v>0.16</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D111">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E111" s="4">
-        <v>121.965</v>
+        <v>102.578</v>
       </c>
       <c r="F111" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" s="2">
         <v>0</v>
       </c>
       <c r="H111" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J111">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C112" s="3">
-        <v>0.16900000000000001</v>
+        <v>0.371</v>
       </c>
       <c r="D112">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E112" s="4">
-        <v>67.016000000000005</v>
+        <v>13.2</v>
       </c>
       <c r="F112" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" s="2">
-        <v>3.7735849056603703E-2</v>
+        <v>0.76470588235294101</v>
       </c>
       <c r="H112" s="2">
-        <v>0.98113207547169801</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="I112">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J112">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4827,64 +4834,64 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C113" s="3">
-        <v>0.214</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D113">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="E113" s="4">
-        <v>276.26499999999999</v>
+        <v>12.651999999999999</v>
       </c>
       <c r="F113" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" s="2">
-        <v>0.03</v>
+        <v>0.8</v>
       </c>
       <c r="H113" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="J113">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B114" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C114" s="3">
-        <v>0.316</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114" s="4">
-        <v>19.914999999999999</v>
+        <v>25.032</v>
       </c>
       <c r="F114" s="2">
         <v>0</v>
       </c>
       <c r="G114" s="2">
-        <v>1</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
       </c>
       <c r="I114">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J114">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4893,25 +4900,25 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115" t="s">
         <v>21</v>
       </c>
-      <c r="B115" t="s">
-        <v>38</v>
-      </c>
       <c r="C115" s="3">
-        <v>0.27700000000000002</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D115">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E115" s="4">
-        <v>263.86399999999998</v>
+        <v>280.459</v>
       </c>
       <c r="F115" s="2">
         <v>0</v>
       </c>
       <c r="G115" s="2">
-        <v>0.98076923076922995</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -4926,31 +4933,31 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C116" s="3">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="D116">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E116" s="4">
-        <v>175.32599999999999</v>
+        <v>76.537999999999997</v>
       </c>
       <c r="F116" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="2">
-        <v>0.86363636363636298</v>
+        <v>0</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="J116">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -4959,97 +4966,97 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C117" s="3">
-        <v>0.313</v>
+        <v>0.27</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="E117" s="4">
-        <v>10.875</v>
+        <v>206.328</v>
       </c>
       <c r="F117" s="2">
-        <v>0.11111111111111099</v>
+        <v>0</v>
       </c>
       <c r="G117" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="J117">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C118" s="3">
-        <v>0.26600000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="E118" s="4">
-        <v>26.314</v>
+        <v>244.029</v>
       </c>
       <c r="F118" s="2">
         <v>0</v>
       </c>
       <c r="G118" s="2">
-        <v>0.81395348837209303</v>
+        <v>0</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J118">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C119" s="3">
-        <v>0.374</v>
+        <v>0.72</v>
       </c>
       <c r="D119">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="E119" s="4">
-        <v>46.777999999999999</v>
+        <v>549.15700000000004</v>
       </c>
       <c r="F119" s="2">
         <v>0</v>
       </c>
       <c r="G119" s="2">
-        <v>0.58823529411764697</v>
+        <v>0.42307692307692302</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J119">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5058,262 +5065,262 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C120" s="3">
-        <v>0.33200000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="D120">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E120" s="4">
-        <v>145.55099999999999</v>
+        <v>121.965</v>
       </c>
       <c r="F120" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
       </c>
       <c r="H120" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J120">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C121" s="3">
-        <v>0.33900000000000002</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="D121">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="E121" s="4">
-        <v>637.16399999999999</v>
+        <v>136.416</v>
       </c>
       <c r="F121" s="2">
         <v>0</v>
       </c>
       <c r="G121" s="2">
-        <v>7.69230769230769E-2</v>
+        <v>0</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="J121">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C122" s="3">
-        <v>0.31</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="D122">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="E122" s="4">
-        <v>69.98</v>
+        <v>311.99799999999999</v>
       </c>
       <c r="F122" s="2">
         <v>0</v>
       </c>
       <c r="G122" s="2">
-        <v>0.95348837209302295</v>
+        <v>1.9230769230769201E-2</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J122">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C123" s="3">
-        <v>0.249</v>
+        <v>0.193</v>
       </c>
       <c r="D123">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E123" s="4">
-        <v>205.642</v>
+        <v>9.1649999999999991</v>
       </c>
       <c r="F123" s="2">
-        <v>0</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="G123" s="2">
-        <v>0.42307692307692302</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
       </c>
       <c r="I123">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J123">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C124" s="3">
-        <v>0.155</v>
+        <v>0.42</v>
       </c>
       <c r="D124">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="E124" s="4">
-        <v>311.89699999999999</v>
+        <v>6.9820000000000002</v>
       </c>
       <c r="F124" s="2">
-        <v>0</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="G124" s="2">
-        <v>0.155555555555555</v>
+        <v>1</v>
       </c>
       <c r="H124" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="J124">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C125" s="3">
-        <v>0.17199999999999999</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="D125">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="E125" s="4">
-        <v>218.69300000000001</v>
+        <v>53.154000000000003</v>
       </c>
       <c r="F125" s="2">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G125" s="2">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H125" s="2">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I125">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J125">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C126" s="3">
-        <v>0.17699999999999999</v>
+        <v>0.627</v>
       </c>
       <c r="D126">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E126" s="4">
-        <v>29.754999999999999</v>
+        <v>248.24600000000001</v>
       </c>
       <c r="F126" s="2">
-        <v>3.8461538461538401E-2</v>
+        <v>1.8867924528301799E-2</v>
       </c>
       <c r="G126" s="2">
-        <v>1</v>
+        <v>0.75471698113207497</v>
       </c>
       <c r="H126" s="2">
-        <v>0.46153846153846101</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J126">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C127" s="3">
-        <v>0.155</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E127" s="4">
-        <v>15.36</v>
+        <v>176.01</v>
       </c>
       <c r="F127" s="2">
         <v>0</v>
       </c>
       <c r="G127" s="2">
-        <v>0.42857142857142799</v>
+        <v>0.125</v>
       </c>
       <c r="H127" s="2">
         <v>0</v>
       </c>
       <c r="I127">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="J127">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5322,64 +5329,64 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C128" s="3">
-        <v>0.189</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D128">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E128" s="4">
-        <v>83.04</v>
+        <v>78.430999999999997</v>
       </c>
       <c r="F128" s="2">
         <v>0</v>
       </c>
       <c r="G128" s="2">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H128" s="2">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J128">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C129" s="3">
-        <v>0.17100000000000001</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="D129">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="E129" s="4">
-        <v>321.197</v>
+        <v>113.232</v>
       </c>
       <c r="F129" s="2">
         <v>0</v>
       </c>
       <c r="G129" s="2">
-        <v>1.9230769230769201E-2</v>
+        <v>2.8571428571428501E-2</v>
       </c>
       <c r="H129" s="2">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J129">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5388,97 +5395,97 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C130" s="3">
-        <v>0.32200000000000001</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E130" s="4">
-        <v>20.32</v>
+        <v>233.398</v>
       </c>
       <c r="F130" s="2">
-        <v>0</v>
+        <v>0.26415094339622602</v>
       </c>
       <c r="G130" s="2">
-        <v>1</v>
+        <v>0.169811320754716</v>
       </c>
       <c r="H130" s="2">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J130">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C131" s="3">
-        <v>0.151</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="D131">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E131" s="4">
-        <v>124.267</v>
+        <v>67.016000000000005</v>
       </c>
       <c r="F131" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" s="2">
-        <v>0.73913043478260798</v>
+        <v>3.7735849056603703E-2</v>
       </c>
       <c r="H131" s="2">
-        <v>0</v>
+        <v>0.98113207547169801</v>
       </c>
       <c r="I131">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="J131">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C132" s="3">
-        <v>0.19800000000000001</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="D132">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="E132" s="4">
-        <v>188.006</v>
+        <v>107.794</v>
       </c>
       <c r="F132" s="2">
         <v>0</v>
       </c>
       <c r="G132" s="2">
-        <v>0.625</v>
+        <v>5.4054054054054002E-2</v>
       </c>
       <c r="H132" s="2">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="J132">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5487,64 +5494,64 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C133" s="3">
-        <v>0.13400000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="D133">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="E133" s="4">
-        <v>26.669</v>
+        <v>166.41499999999999</v>
       </c>
       <c r="F133" s="2">
-        <v>0</v>
+        <v>5.6603773584905599E-2</v>
       </c>
       <c r="G133" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="J133">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C134" s="3">
-        <v>0.39400000000000002</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D134">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E134" s="4">
-        <v>173.49199999999999</v>
+        <v>13.4</v>
       </c>
       <c r="F134" s="2">
         <v>0</v>
       </c>
       <c r="G134" s="2">
-        <v>0.61538461538461497</v>
+        <v>1</v>
       </c>
       <c r="H134" s="2">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J134">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5553,31 +5560,31 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C135" s="3">
-        <v>0.26900000000000002</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E135" s="4">
-        <v>26.526</v>
+        <v>15.25</v>
       </c>
       <c r="F135" s="2">
         <v>0</v>
       </c>
       <c r="G135" s="2">
-        <v>0.73684210526315697</v>
+        <v>0.6</v>
       </c>
       <c r="H135" s="2">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J135">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5586,97 +5593,97 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
         <v>37</v>
       </c>
-      <c r="B136" t="s">
-        <v>46</v>
-      </c>
       <c r="C136" s="3">
-        <v>0.31900000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="D136">
-        <v>281</v>
+        <v>2</v>
       </c>
       <c r="E136" s="4">
-        <v>642.73</v>
+        <v>30.786000000000001</v>
       </c>
       <c r="F136" s="2">
         <v>0</v>
       </c>
       <c r="G136" s="2">
-        <v>0</v>
+        <v>0.69491525423728795</v>
       </c>
       <c r="H136" s="2">
-        <v>0</v>
+        <v>0.152542372881355</v>
       </c>
       <c r="I136">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="J136">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
         <v>21</v>
       </c>
-      <c r="B137" t="s">
-        <v>46</v>
-      </c>
       <c r="C137" s="3">
-        <v>0.29799999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D137">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="E137" s="4">
-        <v>283.30099999999999</v>
+        <v>15.643000000000001</v>
       </c>
       <c r="F137" s="2">
-        <v>0</v>
+        <v>4.7619047619047603E-2</v>
       </c>
       <c r="G137" s="2">
-        <v>0.88</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="H137" s="2">
-        <v>0</v>
+        <v>0.22222222222222199</v>
       </c>
       <c r="I137">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="J137">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
+        <v>50</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138" s="4">
+        <v>25.175000000000001</v>
+      </c>
+      <c r="F138" s="2">
+        <v>0</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0.60869565217391297</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0</v>
+      </c>
+      <c r="I138">
         <v>46</v>
-      </c>
-      <c r="C138" s="3">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="D138">
-        <v>43</v>
-      </c>
-      <c r="E138" s="4">
-        <v>135.833</v>
-      </c>
-      <c r="F138" s="2">
-        <v>0</v>
-      </c>
-      <c r="G138" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="H138" s="2">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>16</v>
       </c>
       <c r="J138">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5685,31 +5692,31 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C139" s="3">
-        <v>0.307</v>
+        <v>0.249</v>
       </c>
       <c r="D139">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E139" s="4">
-        <v>69.298000000000002</v>
+        <v>12.972</v>
       </c>
       <c r="F139" s="2">
         <v>0</v>
       </c>
       <c r="G139" s="2">
-        <v>0.76190476190476097</v>
+        <v>1</v>
       </c>
       <c r="H139" s="2">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J139">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5718,64 +5725,64 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C140" s="3">
-        <v>0.25600000000000001</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="D140">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E140" s="4">
-        <v>210.726</v>
+        <v>28.045000000000002</v>
       </c>
       <c r="F140" s="2">
-        <v>0</v>
+        <v>3.2258064516128997E-2</v>
       </c>
       <c r="G140" s="2">
-        <v>0.24</v>
+        <v>0.83870967741935398</v>
       </c>
       <c r="H140" s="2">
-        <v>0</v>
+        <v>0.17741935483870899</v>
       </c>
       <c r="I140">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J140">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C141" s="3">
-        <v>0.27400000000000002</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D141">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="E141" s="4">
-        <v>120.774</v>
+        <v>19.914999999999999</v>
       </c>
       <c r="F141" s="2">
         <v>0</v>
       </c>
       <c r="G141" s="2">
-        <v>0.133333333333333</v>
+        <v>1</v>
       </c>
       <c r="H141" s="2">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J141">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5784,31 +5791,31 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C142" s="3">
-        <v>0.189</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="D142">
-        <v>422</v>
+        <v>1</v>
       </c>
       <c r="E142" s="4">
-        <v>380.935</v>
+        <v>20.32</v>
       </c>
       <c r="F142" s="2">
         <v>0</v>
       </c>
       <c r="G142" s="2">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
       <c r="H142" s="2">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J142">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5817,85 +5824,85 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>49</v>
+      </c>
+      <c r="B143" t="s">
         <v>21</v>
       </c>
-      <c r="B143" t="s">
-        <v>14</v>
-      </c>
       <c r="C143" s="3">
-        <v>0.20899999999999999</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="D143">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E143" s="4">
-        <v>199.31</v>
+        <v>193.55799999999999</v>
       </c>
       <c r="F143" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G143" s="2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H143" s="2">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J143">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C144" s="3">
-        <v>0.28299999999999997</v>
+        <v>0.182</v>
       </c>
       <c r="D144">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="E144" s="4">
-        <v>81.519000000000005</v>
+        <v>97.168999999999997</v>
       </c>
       <c r="F144" s="2">
         <v>0</v>
       </c>
       <c r="G144" s="2">
-        <v>0.11111111111111099</v>
+        <v>0</v>
       </c>
       <c r="H144" s="2">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J144">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C145" s="3">
-        <v>0.21299999999999999</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="D145">
-        <v>290</v>
+        <v>181</v>
       </c>
       <c r="E145" s="4">
-        <v>270.64600000000002</v>
+        <v>219.17</v>
       </c>
       <c r="F145" s="2">
         <v>0</v>
@@ -5907,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J145">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -5916,163 +5923,163 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C146" s="3">
-        <v>0.221</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D146">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E146" s="4">
-        <v>11.574</v>
+        <v>33.218000000000004</v>
       </c>
       <c r="F146" s="2">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="G146" s="2">
         <v>0</v>
       </c>
       <c r="H146" s="2">
-        <v>0</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="I146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J146">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C147" s="3">
-        <v>0.27800000000000002</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="D147">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="E147" s="4">
-        <v>128.20400000000001</v>
+        <v>165.49700000000001</v>
       </c>
       <c r="F147" s="2">
         <v>0</v>
       </c>
       <c r="G147" s="2">
-        <v>4.7619047619047603E-2</v>
+        <v>0.44444444444444398</v>
       </c>
       <c r="H147" s="2">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J147">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C148" s="3">
-        <v>0.20599999999999999</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D148">
-        <v>431</v>
+        <v>54</v>
       </c>
       <c r="E148" s="4">
-        <v>387.87599999999998</v>
+        <v>69.363</v>
       </c>
       <c r="F148" s="2">
         <v>0</v>
       </c>
       <c r="G148" s="2">
-        <v>0</v>
+        <v>0.28571428571428498</v>
       </c>
       <c r="H148" s="2">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J148">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C149" s="3">
-        <v>0.56399999999999995</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D149">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E149" s="4">
-        <v>247.81200000000001</v>
+        <v>101.7</v>
       </c>
       <c r="F149" s="2">
         <v>0</v>
       </c>
       <c r="G149" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" s="2">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="J149">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C150" s="3">
-        <v>0.42099999999999999</v>
+        <v>0.376</v>
       </c>
       <c r="D150">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="E150" s="4">
-        <v>847.197</v>
+        <v>12.972</v>
       </c>
       <c r="F150" s="2">
         <v>0</v>
       </c>
       <c r="G150" s="2">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="H150" s="2">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J150">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6081,97 +6088,97 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C151" s="3">
-        <v>0.44800000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D151">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E151" s="4">
-        <v>425.46100000000001</v>
+        <v>201.536</v>
       </c>
       <c r="F151" s="2">
         <v>0</v>
       </c>
       <c r="G151" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" s="2">
         <v>0</v>
       </c>
       <c r="I151">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="J151">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C152" s="3">
-        <v>0.48299999999999998</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="D152">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E152" s="4">
-        <v>82.968000000000004</v>
+        <v>547.91399999999999</v>
       </c>
       <c r="F152" s="2">
-        <v>1.20481927710843E-2</v>
+        <v>0</v>
       </c>
       <c r="G152" s="2">
-        <v>0.92771084337349397</v>
+        <v>0.6</v>
       </c>
       <c r="H152" s="2">
-        <v>0.62650602409638501</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="J152">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C153" s="3">
-        <v>0.56499999999999995</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="D153">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E153" s="4">
-        <v>162.916</v>
+        <v>268.43</v>
       </c>
       <c r="F153" s="2">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="G153" s="2">
-        <v>0.86666666666666603</v>
+        <v>0</v>
       </c>
       <c r="H153" s="2">
         <v>0</v>
       </c>
       <c r="I153">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J153">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6180,52 +6187,52 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C154" s="3">
-        <v>0.35599999999999998</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D154">
+        <v>215</v>
+      </c>
+      <c r="E154" s="4">
+        <v>234.88</v>
+      </c>
+      <c r="F154" s="2">
+        <v>0</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0</v>
+      </c>
+      <c r="H154" s="2">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>16</v>
+      </c>
+      <c r="J154">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
         <v>3</v>
-      </c>
-      <c r="E154" s="4">
-        <v>26.170999999999999</v>
-      </c>
-      <c r="F154" s="2">
-        <v>6.6666666666666596E-2</v>
-      </c>
-      <c r="G154" s="2">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="H154" s="2">
-        <v>0</v>
-      </c>
-      <c r="I154">
-        <v>45</v>
-      </c>
-      <c r="J154">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C155" s="3">
-        <v>0.46899999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="D155">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E155" s="4">
-        <v>594.95399999999995</v>
+        <v>138.46199999999999</v>
       </c>
       <c r="F155" s="2">
         <v>0</v>
@@ -6237,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="I155">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J155">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6246,97 +6253,97 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C156" s="3">
-        <v>0.60399999999999998</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="E156" s="4">
-        <v>6.4420000000000002</v>
+        <v>313.73599999999999</v>
       </c>
       <c r="F156" s="2">
         <v>0</v>
       </c>
       <c r="G156" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J156">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C157" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.433</v>
       </c>
       <c r="D157">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E157" s="4">
-        <v>28.759</v>
+        <v>80.546000000000006</v>
       </c>
       <c r="F157" s="2">
-        <v>2.3809523809523801E-2</v>
+        <v>0</v>
       </c>
       <c r="G157" s="2">
-        <v>0.85714285714285698</v>
+        <v>0</v>
       </c>
       <c r="H157" s="2">
-        <v>0.14285714285714199</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="J157">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C158" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="D158">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E158" s="4">
-        <v>263.108</v>
+        <v>106.557</v>
       </c>
       <c r="F158" s="2">
         <v>0</v>
       </c>
       <c r="G158" s="2">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H158" s="2">
         <v>0</v>
       </c>
       <c r="I158">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="J158">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6345,64 +6352,64 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C159" s="3">
-        <v>0.36199999999999999</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="D159">
         <v>2</v>
       </c>
       <c r="E159" s="4">
-        <v>12.564</v>
+        <v>67.795000000000002</v>
       </c>
       <c r="F159" s="2">
-        <v>0.14285714285714199</v>
+        <v>0</v>
       </c>
       <c r="G159" s="2">
-        <v>0.71428571428571397</v>
+        <v>0.92307692307692302</v>
       </c>
       <c r="H159" s="2">
         <v>0</v>
       </c>
       <c r="I159">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J159">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C160" s="3">
-        <v>0.56100000000000005</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D160">
         <v>4</v>
       </c>
       <c r="E160" s="4">
-        <v>43.845999999999997</v>
+        <v>46.05</v>
       </c>
       <c r="F160" s="2">
         <v>0</v>
       </c>
       <c r="G160" s="2">
-        <v>0.61538461538461497</v>
+        <v>1</v>
       </c>
       <c r="H160" s="2">
         <v>0</v>
       </c>
       <c r="I160">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J160">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6411,64 +6418,64 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C161" s="3">
-        <v>0.46899999999999997</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D161">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E161" s="4">
-        <v>130.71600000000001</v>
+        <v>35.673999999999999</v>
       </c>
       <c r="F161" s="2">
-        <v>0</v>
+        <v>0.42857142857142799</v>
       </c>
       <c r="G161" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" s="2">
         <v>0</v>
       </c>
       <c r="I161">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="J161">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B162" t="s">
+        <v>35</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D162">
+        <v>21</v>
+      </c>
+      <c r="E162" s="4">
+        <v>81.352999999999994</v>
+      </c>
+      <c r="F162" s="2">
+        <v>0</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0.27272727272727199</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0</v>
+      </c>
+      <c r="I162">
         <v>11</v>
-      </c>
-      <c r="C162" s="3">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="D162">
-        <v>11</v>
-      </c>
-      <c r="E162" s="4">
-        <v>67.286000000000001</v>
-      </c>
-      <c r="F162" s="2">
-        <v>0</v>
-      </c>
-      <c r="G162" s="2">
-        <v>0.13636363636363599</v>
-      </c>
-      <c r="H162" s="2">
-        <v>0</v>
-      </c>
-      <c r="I162">
-        <v>44</v>
       </c>
       <c r="J162">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6477,64 +6484,64 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C163" s="3">
-        <v>0.45700000000000002</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D163">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E163" s="4">
-        <v>200.685</v>
+        <v>186.97399999999999</v>
       </c>
       <c r="F163" s="2">
         <v>0</v>
       </c>
       <c r="G163" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H163" s="2">
         <v>0</v>
       </c>
       <c r="I163">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="J163">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C164" s="3">
-        <v>0.46899999999999997</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="D164">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="E164" s="4">
-        <v>880.69500000000005</v>
+        <v>112.221</v>
       </c>
       <c r="F164" s="2">
         <v>0</v>
       </c>
       <c r="G164" s="2">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="H164" s="2">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J164">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6543,64 +6550,64 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C165" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E165" s="4">
-        <v>6.9720000000000004</v>
+        <v>136.66200000000001</v>
       </c>
       <c r="F165" s="2">
-        <v>9.0909090909090898E-2</v>
+        <v>0</v>
       </c>
       <c r="G165" s="2">
-        <v>1</v>
+        <v>5.5555555555555497E-2</v>
       </c>
       <c r="H165" s="2">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J165">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C166" s="3">
-        <v>0.56200000000000006</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="D166">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E166" s="4">
-        <v>66.968000000000004</v>
+        <v>74.953999999999994</v>
       </c>
       <c r="F166" s="2">
         <v>0</v>
       </c>
       <c r="G166" s="2">
-        <v>1</v>
+        <v>0.35294117647058798</v>
       </c>
       <c r="H166" s="2">
         <v>0</v>
       </c>
       <c r="I166">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J166">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6609,31 +6616,31 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B167" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C167" s="3">
-        <v>0.41599999999999998</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D167">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E167" s="4">
-        <v>188.84200000000001</v>
+        <v>148.089</v>
       </c>
       <c r="F167" s="2">
         <v>0</v>
       </c>
       <c r="G167" s="2">
-        <v>0.51470588235294101</v>
+        <v>0.8</v>
       </c>
       <c r="H167" s="2">
         <v>0</v>
       </c>
       <c r="I167">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J167">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6642,58 +6649,58 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" s="3">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D168">
+        <v>122</v>
+      </c>
+      <c r="E168" s="4">
+        <v>290.58699999999999</v>
+      </c>
+      <c r="F168" s="2">
+        <v>0</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>50</v>
+      </c>
+      <c r="J168">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C168" s="3">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="D168">
-        <v>14</v>
-      </c>
-      <c r="E168" s="4">
-        <v>106.831</v>
-      </c>
-      <c r="F168" s="2">
-        <v>0</v>
-      </c>
-      <c r="G168" s="2">
-        <v>0.61538461538461497</v>
-      </c>
-      <c r="H168" s="2">
-        <v>0</v>
-      </c>
-      <c r="I168">
-        <v>78</v>
-      </c>
-      <c r="J168">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>15</v>
-      </c>
-      <c r="B169" t="s">
-        <v>11</v>
+      <c r="B169" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C169" s="3">
-        <v>0.374</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D169">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E169" s="4">
-        <v>307.697</v>
+        <v>794.53800000000001</v>
       </c>
       <c r="F169" s="2">
         <v>0</v>
       </c>
       <c r="G169" s="2">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="H169" s="2">
         <v>0</v>
@@ -6707,65 +6714,65 @@
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>22</v>
-      </c>
-      <c r="B170" t="s">
-        <v>39</v>
+      <c r="A170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C170" s="3">
-        <v>0.16800000000000001</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D170">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="E170" s="4">
-        <v>9.8859999999999992</v>
+        <v>433.911</v>
       </c>
       <c r="F170" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G170" s="2">
-        <v>0.53333333333333299</v>
+        <v>0.99</v>
       </c>
       <c r="H170" s="2">
         <v>0</v>
       </c>
       <c r="I170">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="J170">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C171" s="3">
-        <v>0.31</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D171">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="E171" s="4">
-        <v>143.03</v>
+        <v>216.011</v>
       </c>
       <c r="F171" s="2">
         <v>0</v>
       </c>
       <c r="G171" s="2">
-        <v>0.74074074074074003</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="H171" s="2">
         <v>0</v>
       </c>
       <c r="I171">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="J171">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6774,31 +6781,31 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C172" s="3">
-        <v>0.223</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D172">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="E172" s="4">
-        <v>7.7439999999999998</v>
+        <v>594.99599999999998</v>
       </c>
       <c r="F172" s="2">
         <v>0</v>
       </c>
       <c r="G172" s="2">
-        <v>0.4</v>
+        <v>0.28378378378378299</v>
       </c>
       <c r="H172" s="2">
         <v>0</v>
       </c>
       <c r="I172">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="J172">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -6807,134 +6814,134 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C173" s="3">
-        <v>0.32400000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D173">
-        <v>587</v>
+        <v>147</v>
       </c>
       <c r="E173" s="4">
-        <v>608.96299999999997</v>
+        <v>290.72899999999998</v>
       </c>
       <c r="F173" s="2">
         <v>0</v>
       </c>
       <c r="G173" s="2">
-        <v>0</v>
+        <v>0.118421052631578</v>
       </c>
       <c r="H173" s="2">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="J173">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C174" s="3">
-        <v>0.27200000000000002</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="D174">
-        <v>92</v>
+        <v>280</v>
       </c>
       <c r="E174" s="4">
-        <v>107.794</v>
+        <v>266.93400000000003</v>
       </c>
       <c r="F174" s="2">
         <v>0</v>
       </c>
       <c r="G174" s="2">
-        <v>5.4054054054054002E-2</v>
+        <v>0</v>
       </c>
       <c r="H174" s="2">
         <v>0</v>
       </c>
       <c r="I174">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J174">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="s">
+        <v>45</v>
+      </c>
+      <c r="C175" s="3">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D175">
+        <v>349</v>
+      </c>
+      <c r="E175" s="4">
+        <v>354.62200000000001</v>
+      </c>
+      <c r="F175" s="2">
+        <v>0</v>
+      </c>
+      <c r="G175" s="2">
+        <v>1.6129032258064498E-2</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0</v>
+      </c>
+      <c r="I175">
         <v>62</v>
       </c>
-      <c r="B175" t="s">
-        <v>39</v>
-      </c>
-      <c r="C175" s="3">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="D175">
-        <v>54</v>
-      </c>
-      <c r="E175" s="4">
-        <v>69.363</v>
-      </c>
-      <c r="F175" s="2">
-        <v>0</v>
-      </c>
-      <c r="G175" s="2">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="H175" s="2">
-        <v>0</v>
-      </c>
-      <c r="I175">
-        <v>7</v>
-      </c>
       <c r="J175">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C176" s="3">
-        <v>0.30499999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D176">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="E176" s="4">
-        <v>234.88</v>
+        <v>816.05499999999995</v>
       </c>
       <c r="F176" s="2">
         <v>0</v>
       </c>
       <c r="G176" s="2">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="H176" s="2">
         <v>0</v>
       </c>
       <c r="I176">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="J176">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
@@ -6942,127 +6949,127 @@
         <v>11</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C177" s="3">
-        <v>0.26200000000000001</v>
+        <v>0.214</v>
       </c>
       <c r="D177">
-        <v>321</v>
+        <v>156</v>
       </c>
       <c r="E177" s="4">
-        <v>337.995</v>
+        <v>276.26499999999999</v>
       </c>
       <c r="F177" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" s="2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H177" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="J177">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C178" s="3">
-        <v>0.13200000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D178">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="E178" s="4">
-        <v>266.05</v>
+        <v>337.995</v>
       </c>
       <c r="F178" s="2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G178" s="2">
-        <v>0.94666666666666599</v>
+        <v>0</v>
       </c>
       <c r="H178" s="2">
-        <v>5.3333333333333302E-2</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J178">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B179" t="s">
         <v>19</v>
       </c>
       <c r="C179" s="3">
-        <v>0.15</v>
+        <v>0.161</v>
       </c>
       <c r="D179">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E179" s="4">
-        <v>189.941</v>
+        <v>208.24100000000001</v>
       </c>
       <c r="F179" s="2">
-        <v>1.85185185185185E-2</v>
+        <v>0</v>
       </c>
       <c r="G179" s="2">
-        <v>0</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="H179" s="2">
         <v>0</v>
       </c>
       <c r="I179">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="J179">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C180" s="3">
-        <v>0.156</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D180">
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="E180" s="4">
-        <v>292.39999999999998</v>
+        <v>492.16199999999998</v>
       </c>
       <c r="F180" s="2">
         <v>0</v>
       </c>
       <c r="G180" s="2">
-        <v>0.44871794871794801</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H180" s="2">
         <v>0</v>
       </c>
       <c r="I180">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J180">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7071,97 +7078,97 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B181" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C181" s="3">
-        <v>0.17899999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="D181">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="E181" s="4">
-        <v>136.416</v>
+        <v>2.9780000000000002</v>
       </c>
       <c r="F181" s="2">
         <v>0</v>
       </c>
       <c r="G181" s="2">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="H181" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I181">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="J181">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B182" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C182" s="3">
-        <v>0.182</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="D182">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E182" s="4">
-        <v>97.168999999999997</v>
+        <v>66.968000000000004</v>
       </c>
       <c r="F182" s="2">
         <v>0</v>
       </c>
       <c r="G182" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" s="2">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J182">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B183" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C183" s="3">
-        <v>0.18</v>
+        <v>0.312</v>
       </c>
       <c r="D183">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="E183" s="4">
-        <v>138.46199999999999</v>
+        <v>141.58600000000001</v>
       </c>
       <c r="F183" s="2">
         <v>0</v>
       </c>
       <c r="G183" s="2">
-        <v>0</v>
+        <v>2.94117647058823E-2</v>
       </c>
       <c r="H183" s="2">
         <v>0</v>
       </c>
       <c r="I183">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="J183">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7170,97 +7177,97 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B184" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C184" s="3">
-        <v>0.161</v>
+        <v>0.223</v>
       </c>
       <c r="D184">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="E184" s="4">
-        <v>208.24100000000001</v>
+        <v>101.419</v>
       </c>
       <c r="F184" s="2">
         <v>0</v>
       </c>
       <c r="G184" s="2">
-        <v>0.157894736842105</v>
+        <v>2.3809523809523801E-2</v>
       </c>
       <c r="H184" s="2">
         <v>0</v>
       </c>
       <c r="I184">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J184">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C185" s="3">
-        <v>0.45200000000000001</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="D185">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="E185" s="4">
-        <v>198.80099999999999</v>
+        <v>246.767</v>
       </c>
       <c r="F185" s="2">
-        <v>0</v>
+        <v>1.47058823529411E-2</v>
       </c>
       <c r="G185" s="2">
-        <v>0.94</v>
+        <v>0.85294117647058798</v>
       </c>
       <c r="H185" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="J185">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C186" s="3">
-        <v>0.438</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D186">
-        <v>766</v>
+        <v>43</v>
       </c>
       <c r="E186" s="4">
-        <v>881.77599999999995</v>
+        <v>135.833</v>
       </c>
       <c r="F186" s="2">
         <v>0</v>
       </c>
       <c r="G186" s="2">
-        <v>0.93</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H186" s="2">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="J186">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7269,31 +7276,31 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C187" s="3">
-        <v>0.43099999999999999</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="D187">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="E187" s="4">
-        <v>409.52</v>
+        <v>188.84200000000001</v>
       </c>
       <c r="F187" s="2">
         <v>0</v>
       </c>
       <c r="G187" s="2">
-        <v>0.99</v>
+        <v>0.51470588235294101</v>
       </c>
       <c r="H187" s="2">
         <v>0</v>
       </c>
       <c r="I187">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="J187">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7302,31 +7309,31 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C188" s="3">
-        <v>0.46100000000000002</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D188">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="E188" s="4">
-        <v>132.81100000000001</v>
+        <v>121.001</v>
       </c>
       <c r="F188" s="2">
-        <v>0</v>
+        <v>1.2820512820512799E-2</v>
       </c>
       <c r="G188" s="2">
-        <v>0.56666666666666599</v>
+        <v>0.91025641025641002</v>
       </c>
       <c r="H188" s="2">
         <v>0</v>
       </c>
       <c r="I188">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="J188">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7335,31 +7342,31 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C189" s="3">
-        <v>0.28599999999999998</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="D189">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E189" s="4">
-        <v>7.7439999999999998</v>
+        <v>82.816999999999993</v>
       </c>
       <c r="F189" s="2">
         <v>0</v>
       </c>
       <c r="G189" s="2">
-        <v>0.16666666666666599</v>
+        <v>0.92857142857142805</v>
       </c>
       <c r="H189" s="2">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J189">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7368,295 +7375,295 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C190" s="3">
-        <v>0.439</v>
+        <v>0.31</v>
       </c>
       <c r="D190">
-        <v>482</v>
+        <v>7</v>
       </c>
       <c r="E190" s="4">
-        <v>556.37099999999998</v>
+        <v>69.98</v>
       </c>
       <c r="F190" s="2">
         <v>0</v>
       </c>
       <c r="G190" s="2">
-        <v>0</v>
+        <v>0.95348837209302295</v>
       </c>
       <c r="H190" s="2">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J190">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C191" s="3">
-        <v>0.47</v>
+        <v>0.307</v>
       </c>
       <c r="D191">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E191" s="4">
-        <v>217.08500000000001</v>
+        <v>69.298000000000002</v>
       </c>
       <c r="F191" s="2">
         <v>0</v>
       </c>
       <c r="G191" s="2">
-        <v>0.94736842105263097</v>
+        <v>0.76190476190476097</v>
       </c>
       <c r="H191" s="2">
-        <v>5.2631578947368397E-2</v>
+        <v>0</v>
       </c>
       <c r="I191">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="J191">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C192" s="3">
-        <v>0.22900000000000001</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="D192">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E192" s="4">
-        <v>7.9409999999999998</v>
+        <v>106.831</v>
       </c>
       <c r="F192" s="2">
-        <v>0.31818181818181801</v>
+        <v>0</v>
       </c>
       <c r="G192" s="2">
-        <v>0.40909090909090901</v>
+        <v>0.61538461538461497</v>
       </c>
       <c r="H192" s="2">
-        <v>4.54545454545454E-2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="J192">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B193" t="s">
+        <v>35</v>
+      </c>
+      <c r="C193" s="3">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D193">
+        <v>55</v>
+      </c>
+      <c r="E193" s="4">
+        <v>144.36199999999999</v>
+      </c>
+      <c r="F193" s="2">
+        <v>0</v>
+      </c>
+      <c r="G193" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="H193" s="2">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>48</v>
+      </c>
+      <c r="J193">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C193" s="3">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="D193">
-        <v>719</v>
-      </c>
-      <c r="E193" s="4">
-        <v>839.54399999999998</v>
-      </c>
-      <c r="F193" s="2">
-        <v>0</v>
-      </c>
-      <c r="G193" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="H193" s="2">
-        <v>0</v>
-      </c>
-      <c r="I193">
+      <c r="B194" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C194" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D194">
+        <v>37</v>
+      </c>
+      <c r="E194" s="4">
+        <v>469.65899999999999</v>
+      </c>
+      <c r="F194" s="2">
+        <v>0</v>
+      </c>
+      <c r="G194" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="H194" s="2">
+        <v>0</v>
+      </c>
+      <c r="I194">
         <v>100</v>
       </c>
-      <c r="J193">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>32</v>
-      </c>
-      <c r="B194" t="s">
+      <c r="J194">
+        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C194" s="3">
-        <v>0.372</v>
-      </c>
-      <c r="D194">
-        <v>9</v>
-      </c>
-      <c r="E194" s="4">
-        <v>12.145</v>
-      </c>
-      <c r="F194" s="2">
-        <v>0.31578947368421001</v>
-      </c>
-      <c r="G194" s="2">
-        <v>0</v>
-      </c>
-      <c r="H194" s="2">
-        <v>0</v>
-      </c>
-      <c r="I194">
-        <v>19</v>
-      </c>
-      <c r="J194">
-        <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>40</v>
-      </c>
-      <c r="B195" t="s">
-        <v>15</v>
+      <c r="B195" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C195" s="3">
-        <v>0.42399999999999999</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D195">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E195" s="4">
-        <v>102.578</v>
+        <v>247.66800000000001</v>
       </c>
       <c r="F195" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G195" s="2">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="H195" s="2">
         <v>0</v>
       </c>
       <c r="I195">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="J195">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C196" s="3">
-        <v>0.40899999999999997</v>
+        <v>0.374</v>
       </c>
       <c r="D196">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="E196" s="4">
-        <v>311.99799999999999</v>
+        <v>308.10599999999999</v>
       </c>
       <c r="F196" s="2">
         <v>0</v>
       </c>
       <c r="G196" s="2">
-        <v>1.9230769230769201E-2</v>
+        <v>0.54054054054054002</v>
       </c>
       <c r="H196" s="2">
         <v>0</v>
       </c>
       <c r="I196">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="J196">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C197" s="3">
-        <v>0.42</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D197">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E197" s="4">
-        <v>6.9820000000000002</v>
+        <v>147.018</v>
       </c>
       <c r="F197" s="2">
-        <v>3.4482758620689599E-2</v>
+        <v>0</v>
       </c>
       <c r="G197" s="2">
-        <v>1</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H197" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="J197">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C198" s="3">
-        <v>0.42</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D198">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="E198" s="4">
-        <v>166.41499999999999</v>
+        <v>450.74700000000001</v>
       </c>
       <c r="F198" s="2">
-        <v>5.6603773584905599E-2</v>
+        <v>0</v>
       </c>
       <c r="G198" s="2">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="H198" s="2">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="J198">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
@@ -7665,91 +7672,91 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C199" s="3">
-        <v>0.41099999999999998</v>
+        <v>0.249</v>
       </c>
       <c r="D199">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="E199" s="4">
-        <v>219.17</v>
+        <v>205.642</v>
       </c>
       <c r="F199" s="2">
         <v>0</v>
       </c>
       <c r="G199" s="2">
-        <v>0</v>
+        <v>0.42307692307692302</v>
       </c>
       <c r="H199" s="2">
         <v>0</v>
       </c>
       <c r="I199">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="J199">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C200" s="3">
-        <v>0.41399999999999998</v>
+        <v>0.151</v>
       </c>
       <c r="D200">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="E200" s="4">
-        <v>101.7</v>
+        <v>124.267</v>
       </c>
       <c r="F200" s="2">
         <v>0</v>
       </c>
       <c r="G200" s="2">
-        <v>0</v>
+        <v>0.73913043478260798</v>
       </c>
       <c r="H200" s="2">
         <v>0</v>
       </c>
       <c r="I200">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J200">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" t="s">
         <v>46</v>
       </c>
-      <c r="B201" t="s">
-        <v>15</v>
-      </c>
       <c r="C201" s="3">
-        <v>0.40799999999999997</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="D201">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c r="E201" s="4">
-        <v>313.73599999999999</v>
+        <v>210.726</v>
       </c>
       <c r="F201" s="2">
         <v>0</v>
       </c>
       <c r="G201" s="2">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H201" s="2">
         <v>0</v>
@@ -7759,30 +7766,30 @@
       </c>
       <c r="J201">
         <f>COUNTIF(Table1[[#This Row],[p_con]:[p_dur]],"&lt;0.05")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" t="s">
         <v>11</v>
       </c>
-      <c r="B202" t="s">
-        <v>15</v>
-      </c>
       <c r="C202" s="3">
-        <v>0.38100000000000001</v>
+        <v>0.374</v>
       </c>
       <c r="D202">
-        <v>424</v>
+        <v>61</v>
       </c>
       <c r="E202" s="4">
-        <v>492.16199999999998</v>
+        <v>307.697</v>
       </c>
       <c r="F202" s="2">
         <v>0</v>
       </c>
       <c r="G202" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.64</v>
       </c>
       <c r="H202" s="2">
         <v>0</v>
